--- a/FirmSizeData.xlsx
+++ b/FirmSizeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/651aad64bcb68259/Documents/Casual Inf Main paper/Casual Inf Main paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E1CE4B-F0D0-4E37-BBC9-FE9A80205EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{30E1CE4B-F0D0-4E37-BBC9-FE9A80205EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC15D926-D187-4879-BD6B-CC829D212AB2}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" firstSheet="15" activeTab="18" xr2:uid="{FDFF36A1-FC43-448D-BF42-356055714A9B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" firstSheet="14" activeTab="19" xr2:uid="{FDFF36A1-FC43-448D-BF42-356055714A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="P1988" sheetId="1" r:id="rId1"/>
@@ -32,28 +32,30 @@
     <sheet name="P2004" sheetId="18" r:id="rId17"/>
     <sheet name="P2005" sheetId="19" r:id="rId18"/>
     <sheet name="P2006" sheetId="20" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId20"/>
-    <pivotCache cacheId="1" r:id="rId21"/>
-    <pivotCache cacheId="2" r:id="rId22"/>
-    <pivotCache cacheId="3" r:id="rId23"/>
-    <pivotCache cacheId="4" r:id="rId24"/>
-    <pivotCache cacheId="5" r:id="rId25"/>
-    <pivotCache cacheId="6" r:id="rId26"/>
-    <pivotCache cacheId="7" r:id="rId27"/>
-    <pivotCache cacheId="8" r:id="rId28"/>
-    <pivotCache cacheId="9" r:id="rId29"/>
-    <pivotCache cacheId="10" r:id="rId30"/>
-    <pivotCache cacheId="11" r:id="rId31"/>
-    <pivotCache cacheId="12" r:id="rId32"/>
-    <pivotCache cacheId="13" r:id="rId33"/>
-    <pivotCache cacheId="14" r:id="rId34"/>
-    <pivotCache cacheId="15" r:id="rId35"/>
-    <pivotCache cacheId="16" r:id="rId36"/>
-    <pivotCache cacheId="17" r:id="rId37"/>
-    <pivotCache cacheId="18" r:id="rId38"/>
+    <pivotCache cacheId="0" r:id="rId21"/>
+    <pivotCache cacheId="1" r:id="rId22"/>
+    <pivotCache cacheId="2" r:id="rId23"/>
+    <pivotCache cacheId="3" r:id="rId24"/>
+    <pivotCache cacheId="4" r:id="rId25"/>
+    <pivotCache cacheId="5" r:id="rId26"/>
+    <pivotCache cacheId="6" r:id="rId27"/>
+    <pivotCache cacheId="7" r:id="rId28"/>
+    <pivotCache cacheId="8" r:id="rId29"/>
+    <pivotCache cacheId="9" r:id="rId30"/>
+    <pivotCache cacheId="10" r:id="rId31"/>
+    <pivotCache cacheId="11" r:id="rId32"/>
+    <pivotCache cacheId="12" r:id="rId33"/>
+    <pivotCache cacheId="13" r:id="rId34"/>
+    <pivotCache cacheId="14" r:id="rId35"/>
+    <pivotCache cacheId="15" r:id="rId36"/>
+    <pivotCache cacheId="16" r:id="rId37"/>
+    <pivotCache cacheId="17" r:id="rId38"/>
+    <pivotCache cacheId="18" r:id="rId39"/>
+    <pivotCache cacheId="40" r:id="rId40"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="64">
   <si>
     <t>Grand Total</t>
   </si>
@@ -247,15 +249,43 @@
   <si>
     <t>Row Labels</t>
   </si>
+  <si>
+    <t>(blank) Max</t>
+  </si>
+  <si>
+    <t>2007 Max</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>9:   500+</t>
+  </si>
+  <si>
+    <t>1:   Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Sum of NUMBER OF FIRMS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,10 +305,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -287,9 +318,18 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" pivotButton="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{93499023-33B4-47FA-8C58-D05B531E6588}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2518,6 +2558,124 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dan Ownby" refreshedDate="45337.736388078702" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="462" xr:uid="{34716EC6-3FDC-4EB2-8745-E5381819BAEC}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A6:L468" sheet="2007" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="FIPS CODE" numFmtId="49">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="GEOGRAPHIC AREA DESCRIPTION" numFmtId="0">
+      <sharedItems containsBlank="1" count="52">
+        <m/>
+        <s v="United States"/>
+        <s v="Alabama"/>
+        <s v="Alaska"/>
+        <s v="Arizona"/>
+        <s v="Arkansas"/>
+        <s v="California"/>
+        <s v="Colorado"/>
+        <s v="Connecticut"/>
+        <s v="Delaware"/>
+        <s v="District of Columbia"/>
+        <s v="Florida"/>
+        <s v="Georgia"/>
+        <s v="Hawaii"/>
+        <s v="Idaho"/>
+        <s v="Illinois"/>
+        <s v="Indiana"/>
+        <s v="Iowa"/>
+        <s v="Kansas"/>
+        <s v="Kentucky"/>
+        <s v="Louisiana"/>
+        <s v="Maine"/>
+        <s v="Maryland"/>
+        <s v="Massachusetts"/>
+        <s v="Michigan"/>
+        <s v="Minnesota"/>
+        <s v="Mississippi"/>
+        <s v="Missouri"/>
+        <s v="Montana"/>
+        <s v="Nebraska"/>
+        <s v="Nevada"/>
+        <s v="New Hampshire"/>
+        <s v="New Jersey"/>
+        <s v="New Mexico"/>
+        <s v="New York"/>
+        <s v="North Carolina"/>
+        <s v="North Dakota"/>
+        <s v="Ohio"/>
+        <s v="Oklahoma"/>
+        <s v="Oregon"/>
+        <s v="Pennsylvania"/>
+        <s v="Rhode Island"/>
+        <s v="South Dakota"/>
+        <s v="Tennessee"/>
+        <s v="Texas"/>
+        <s v="Utah"/>
+        <s v="Vermont"/>
+        <s v="Virginia"/>
+        <s v="Washington"/>
+        <s v="West Virginia"/>
+        <s v="Wisconsin"/>
+        <s v="Wyoming"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ENTERPRISE EMPLOYMENT SIZE" numFmtId="0">
+      <sharedItems containsBlank="1" count="10">
+        <m/>
+        <s v="1:   Total"/>
+        <s v="2:   0-4"/>
+        <s v="3:   5-9"/>
+        <s v="4:   10-19"/>
+        <s v="5:   &lt;20"/>
+        <s v="6:   20-99"/>
+        <s v="7:   100-499"/>
+        <s v="8:   &lt;500"/>
+        <s v="9:   500+"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="NUMBER OF FIRMS" numFmtId="3">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="316" maxValue="6049655"/>
+    </cacheField>
+    <cacheField name="NUMBER OF ESTABLISHMENTS" numFmtId="3">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="989" maxValue="7705018"/>
+    </cacheField>
+    <cacheField name="EMPLOYMENT" numFmtId="3">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="14292" maxValue="120604265"/>
+    </cacheField>
+    <cacheField name="EMPLOYMENT NOISE FLAG" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ANNUAL PAYROLL ($1,000)" numFmtId="3">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="472382" maxValue="5026778232"/>
+    </cacheField>
+    <cacheField name="ANNUAL PAYROLL NOISE FLAG" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="RECEIPTS ($1,000)" numFmtId="3">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2758857" maxValue="29746741904"/>
+    </cacheField>
+    <cacheField name="RECEIPTS NOISE FLAG" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="YEAR" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <m/>
+        <s v="2007"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Daniel" refreshedDate="44539.95813900463" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="208" xr:uid="{AB857760-402F-42AC-8E0A-87182C4CA876}">
   <cacheSource type="worksheet">
@@ -34445,6 +34603,6479 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="462">
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6049655"/>
+    <n v="7705018"/>
+    <n v="120604265"/>
+    <s v="G"/>
+    <n v="5026778232"/>
+    <s v="G"/>
+    <n v="29746741904"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3705275"/>
+    <n v="3710700"/>
+    <n v="6139463"/>
+    <s v="G"/>
+    <n v="234921325"/>
+    <s v="G"/>
+    <n v="1434680823"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1060250"/>
+    <n v="1073875"/>
+    <n v="6974591"/>
+    <s v="G"/>
+    <n v="222419546"/>
+    <s v="G"/>
+    <n v="1144930232"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="644842"/>
+    <n v="682410"/>
+    <n v="8656182"/>
+    <s v="G"/>
+    <n v="292088277"/>
+    <s v="G"/>
+    <n v="1395498431"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="5410367"/>
+    <n v="5466985"/>
+    <n v="21770236"/>
+    <s v="G"/>
+    <n v="749429148"/>
+    <s v="G"/>
+    <n v="3975109486"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="532391"/>
+    <n v="723385"/>
+    <n v="20922960"/>
+    <s v="G"/>
+    <n v="768546555"/>
+    <s v="G"/>
+    <n v="3792920977"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="88586"/>
+    <n v="355853"/>
+    <n v="17173728"/>
+    <s v="G"/>
+    <n v="686862018"/>
+    <s v="G"/>
+    <n v="3612050221"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="6031344"/>
+    <n v="6546223"/>
+    <n v="59866924"/>
+    <s v="G"/>
+    <n v="2204837721"/>
+    <s v="G"/>
+    <n v="11380080684"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="18311"/>
+    <n v="1158795"/>
+    <n v="60737341"/>
+    <s v="G"/>
+    <n v="2821940511"/>
+    <s v="G"/>
+    <n v="18366661220"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="01"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="81565"/>
+    <n v="105627"/>
+    <n v="1722834"/>
+    <s v="G"/>
+    <n v="58263271"/>
+    <s v="G"/>
+    <n v="392681729"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="44431"/>
+    <n v="44488"/>
+    <n v="80341"/>
+    <s v="G"/>
+    <n v="2417475"/>
+    <s v="G"/>
+    <n v="16217213"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="15297"/>
+    <n v="15480"/>
+    <n v="100581"/>
+    <s v="G"/>
+    <n v="2735285"/>
+    <s v="G"/>
+    <n v="14936704"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="9449"/>
+    <n v="10028"/>
+    <n v="125752"/>
+    <s v="G"/>
+    <n v="3668059"/>
+    <s v="G"/>
+    <n v="18935412"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="69177"/>
+    <n v="69996"/>
+    <n v="306674"/>
+    <s v="G"/>
+    <n v="8820819"/>
+    <s v="G"/>
+    <n v="50089329"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="8102"/>
+    <n v="10998"/>
+    <n v="300811"/>
+    <s v="G"/>
+    <n v="9535422"/>
+    <s v="G"/>
+    <n v="52119562"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="1985"/>
+    <n v="5596"/>
+    <n v="241406"/>
+    <s v="G"/>
+    <n v="8035487"/>
+    <s v="G"/>
+    <n v="46527651"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="79264"/>
+    <n v="86590"/>
+    <n v="848891"/>
+    <s v="G"/>
+    <n v="26391728"/>
+    <s v="G"/>
+    <n v="148736542"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="2301"/>
+    <n v="19037"/>
+    <n v="873943"/>
+    <s v="G"/>
+    <n v="31871543"/>
+    <s v="G"/>
+    <n v="243945187"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="02"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="16786"/>
+    <n v="20198"/>
+    <n v="244621"/>
+    <s v="G"/>
+    <n v="11400670"/>
+    <s v="G"/>
+    <n v="75278199"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="10201"/>
+    <n v="10225"/>
+    <n v="15376"/>
+    <s v="H"/>
+    <n v="710368"/>
+    <s v="G"/>
+    <n v="3678161"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="2854"/>
+    <n v="2894"/>
+    <n v="18779"/>
+    <s v="G"/>
+    <n v="681730"/>
+    <s v="G"/>
+    <n v="2982715"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="1667"/>
+    <n v="1833"/>
+    <n v="22004"/>
+    <s v="G"/>
+    <n v="882203"/>
+    <s v="G"/>
+    <n v="3729690"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="14722"/>
+    <n v="14952"/>
+    <n v="56159"/>
+    <s v="G"/>
+    <n v="2274301"/>
+    <s v="G"/>
+    <n v="10390566"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1216"/>
+    <n v="1790"/>
+    <n v="42888"/>
+    <s v="G"/>
+    <n v="1817213"/>
+    <s v="G"/>
+    <n v="7871855"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="316"/>
+    <n v="989"/>
+    <n v="35763"/>
+    <s v="G"/>
+    <n v="1468049"/>
+    <s v="G"/>
+    <n v="6102195"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="16254"/>
+    <n v="17731"/>
+    <n v="134810"/>
+    <s v="G"/>
+    <n v="5559563"/>
+    <s v="G"/>
+    <n v="24364616"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="532"/>
+    <n v="2467"/>
+    <n v="109811"/>
+    <s v="G"/>
+    <n v="5841107"/>
+    <s v="G"/>
+    <n v="50913583"/>
+    <s v="H"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="04"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="113298"/>
+    <n v="142925"/>
+    <n v="2404089"/>
+    <s v="G"/>
+    <n v="90797015"/>
+    <s v="G"/>
+    <n v="483798292"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="66541"/>
+    <n v="66616"/>
+    <n v="103528"/>
+    <s v="G"/>
+    <n v="4262854"/>
+    <s v="G"/>
+    <n v="23503577"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="18302"/>
+    <n v="18479"/>
+    <n v="120860"/>
+    <s v="G"/>
+    <n v="3720985"/>
+    <s v="G"/>
+    <n v="17138181"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="11840"/>
+    <n v="12305"/>
+    <n v="157465"/>
+    <s v="G"/>
+    <n v="4998057"/>
+    <s v="G"/>
+    <n v="22365395"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="96683"/>
+    <n v="97400"/>
+    <n v="381853"/>
+    <s v="G"/>
+    <n v="12981896"/>
+    <s v="G"/>
+    <n v="63007153"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="10740"/>
+    <n v="13330"/>
+    <n v="403742"/>
+    <s v="G"/>
+    <n v="13176113"/>
+    <s v="G"/>
+    <n v="56956108"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="7"/>
+    <n v="2901"/>
+    <n v="6833"/>
+    <n v="352371"/>
+    <s v="G"/>
+    <n v="12411391"/>
+    <s v="G"/>
+    <n v="56473280"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="8"/>
+    <n v="110324"/>
+    <n v="117563"/>
+    <n v="1137966"/>
+    <s v="G"/>
+    <n v="38569400"/>
+    <s v="G"/>
+    <n v="176436541"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <n v="2974"/>
+    <n v="25362"/>
+    <n v="1266123"/>
+    <s v="G"/>
+    <n v="52227615"/>
+    <s v="G"/>
+    <n v="307361751"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="05"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="53697"/>
+    <n v="67648"/>
+    <n v="1031307"/>
+    <s v="G"/>
+    <n v="33343923"/>
+    <s v="G"/>
+    <n v="233595464"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="30714"/>
+    <n v="30743"/>
+    <n v="52322"/>
+    <s v="G"/>
+    <n v="1532061"/>
+    <s v="G"/>
+    <n v="10080441"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="9775"/>
+    <n v="9864"/>
+    <n v="64009"/>
+    <s v="G"/>
+    <n v="1577049"/>
+    <s v="G"/>
+    <n v="8424498"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="5699"/>
+    <n v="5985"/>
+    <n v="75140"/>
+    <s v="G"/>
+    <n v="1974645"/>
+    <s v="G"/>
+    <n v="10938959"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="46188"/>
+    <n v="46592"/>
+    <n v="191471"/>
+    <s v="G"/>
+    <n v="5083755"/>
+    <s v="G"/>
+    <n v="29443898"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <x v="6"/>
+    <n v="4740"/>
+    <n v="6704"/>
+    <n v="173158"/>
+    <s v="G"/>
+    <n v="4716412"/>
+    <s v="G"/>
+    <n v="31333172"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <x v="7"/>
+    <n v="1138"/>
+    <n v="3440"/>
+    <n v="136603"/>
+    <s v="G"/>
+    <n v="4110713"/>
+    <s v="G"/>
+    <n v="23104691"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <x v="8"/>
+    <n v="52066"/>
+    <n v="56736"/>
+    <n v="501232"/>
+    <s v="G"/>
+    <n v="13910880"/>
+    <s v="G"/>
+    <n v="83881761"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <x v="9"/>
+    <n v="1631"/>
+    <n v="10912"/>
+    <n v="530075"/>
+    <s v="G"/>
+    <n v="19433043"/>
+    <s v="G"/>
+    <n v="149713703"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="06"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="730789"/>
+    <n v="891997"/>
+    <n v="13771650"/>
+    <s v="G"/>
+    <n v="653886933"/>
+    <s v="G"/>
+    <n v="3615992390"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="443868"/>
+    <n v="444478"/>
+    <n v="728033"/>
+    <s v="G"/>
+    <n v="35196503"/>
+    <s v="G"/>
+    <n v="193994497"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="124691"/>
+    <n v="126251"/>
+    <n v="818915"/>
+    <s v="G"/>
+    <n v="29120550"/>
+    <s v="G"/>
+    <n v="153128163"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="76710"/>
+    <n v="80519"/>
+    <n v="1023854"/>
+    <s v="G"/>
+    <n v="37686181"/>
+    <s v="G"/>
+    <n v="179354950"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="645269"/>
+    <n v="651248"/>
+    <n v="2570802"/>
+    <s v="G"/>
+    <n v="102003234"/>
+    <s v="G"/>
+    <n v="526477610"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="66560"/>
+    <n v="84508"/>
+    <n v="2553956"/>
+    <s v="G"/>
+    <n v="103469038"/>
+    <s v="G"/>
+    <n v="500589495"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="7"/>
+    <n v="13149"/>
+    <n v="37214"/>
+    <n v="1987364"/>
+    <s v="G"/>
+    <n v="89960610"/>
+    <s v="G"/>
+    <n v="459975020"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="8"/>
+    <n v="724978"/>
+    <n v="772970"/>
+    <n v="7112122"/>
+    <s v="G"/>
+    <n v="295432882"/>
+    <s v="G"/>
+    <n v="1487042125"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="9"/>
+    <n v="5811"/>
+    <n v="119027"/>
+    <n v="6659528"/>
+    <s v="G"/>
+    <n v="358454051"/>
+    <s v="G"/>
+    <n v="2128950265"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="08"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="131894"/>
+    <n v="157882"/>
+    <n v="2075821"/>
+    <s v="G"/>
+    <n v="87797087"/>
+    <s v="G"/>
+    <n v="482668612"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="84522"/>
+    <n v="84583"/>
+    <n v="127305"/>
+    <s v="H"/>
+    <n v="5060223"/>
+    <s v="G"/>
+    <n v="28365058"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="19838"/>
+    <n v="20026"/>
+    <n v="129787"/>
+    <s v="G"/>
+    <n v="4280988"/>
+    <s v="G"/>
+    <n v="20500966"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="11913"/>
+    <n v="12449"/>
+    <n v="158188"/>
+    <s v="G"/>
+    <n v="5407414"/>
+    <s v="G"/>
+    <n v="23620876"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="116273"/>
+    <n v="117058"/>
+    <n v="415280"/>
+    <s v="G"/>
+    <n v="14748625"/>
+    <s v="G"/>
+    <n v="72486900"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <x v="6"/>
+    <n v="10047"/>
+    <n v="12642"/>
+    <n v="361888"/>
+    <s v="G"/>
+    <n v="13402167"/>
+    <s v="G"/>
+    <n v="61922002"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="2562"/>
+    <n v="5901"/>
+    <n v="263926"/>
+    <s v="G"/>
+    <n v="11038805"/>
+    <s v="G"/>
+    <n v="48453679"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <x v="8"/>
+    <n v="128882"/>
+    <n v="135601"/>
+    <n v="1041094"/>
+    <s v="G"/>
+    <n v="39189597"/>
+    <s v="G"/>
+    <n v="182862581"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <x v="9"/>
+    <n v="3012"/>
+    <n v="22281"/>
+    <n v="1034727"/>
+    <s v="G"/>
+    <n v="48607490"/>
+    <s v="G"/>
+    <n v="299806031"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="09"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="77128"/>
+    <n v="93615"/>
+    <n v="1539268"/>
+    <s v="G"/>
+    <n v="81460457"/>
+    <s v="G"/>
+    <n v="524283641"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="43546"/>
+    <n v="43605"/>
+    <n v="75270"/>
+    <s v="G"/>
+    <n v="3399841"/>
+    <s v="G"/>
+    <n v="27133921"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="13782"/>
+    <n v="13928"/>
+    <n v="90634"/>
+    <s v="G"/>
+    <n v="3604826"/>
+    <s v="G"/>
+    <n v="17541706"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="8503"/>
+    <n v="8847"/>
+    <n v="112987"/>
+    <s v="G"/>
+    <n v="4902147"/>
+    <s v="G"/>
+    <n v="21423470"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="65831"/>
+    <n v="66380"/>
+    <n v="278891"/>
+    <s v="G"/>
+    <n v="11906814"/>
+    <s v="G"/>
+    <n v="66099097"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="7295"/>
+    <n v="8929"/>
+    <n v="266400"/>
+    <s v="G"/>
+    <n v="12802267"/>
+    <s v="G"/>
+    <n v="71165671"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <x v="7"/>
+    <n v="1961"/>
+    <n v="4588"/>
+    <n v="236433"/>
+    <s v="G"/>
+    <n v="12732409"/>
+    <s v="G"/>
+    <n v="73792458"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="75087"/>
+    <n v="79897"/>
+    <n v="781724"/>
+    <s v="G"/>
+    <n v="37441490"/>
+    <s v="G"/>
+    <n v="211057226"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <x v="9"/>
+    <n v="2041"/>
+    <n v="13718"/>
+    <n v="757544"/>
+    <s v="G"/>
+    <n v="44018967"/>
+    <s v="G"/>
+    <n v="313226415"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="10"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="20743"/>
+    <n v="25521"/>
+    <n v="396317"/>
+    <s v="G"/>
+    <n v="18607545"/>
+    <s v="G"/>
+    <n v="166867322"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="11353"/>
+    <n v="11374"/>
+    <n v="18003"/>
+    <s v="G"/>
+    <n v="680885"/>
+    <s v="G"/>
+    <n v="5369590"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="3222"/>
+    <n v="3260"/>
+    <n v="21061"/>
+    <s v="G"/>
+    <n v="686125"/>
+    <s v="G"/>
+    <n v="3279544"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="2055"/>
+    <n v="2150"/>
+    <n v="27197"/>
+    <s v="G"/>
+    <n v="927453"/>
+    <s v="G"/>
+    <n v="4682484"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="16630"/>
+    <n v="16784"/>
+    <n v="66261"/>
+    <s v="G"/>
+    <n v="2294463"/>
+    <s v="G"/>
+    <n v="13331618"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="1924"/>
+    <n v="2437"/>
+    <n v="65718"/>
+    <s v="G"/>
+    <n v="2548573"/>
+    <s v="G"/>
+    <n v="11772734"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="9"/>
+    <x v="7"/>
+    <n v="728"/>
+    <n v="1326"/>
+    <n v="49652"/>
+    <s v="G"/>
+    <n v="2013326"/>
+    <s v="G"/>
+    <n v="10067715"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="9"/>
+    <x v="8"/>
+    <n v="19282"/>
+    <n v="20547"/>
+    <n v="181631"/>
+    <s v="G"/>
+    <n v="6856362"/>
+    <s v="G"/>
+    <n v="35172067"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="1461"/>
+    <n v="4974"/>
+    <n v="214686"/>
+    <s v="G"/>
+    <n v="11751183"/>
+    <s v="G"/>
+    <n v="131695255"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="11"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="16925"/>
+    <n v="20994"/>
+    <n v="454554"/>
+    <s v="G"/>
+    <n v="28804832"/>
+    <s v="G"/>
+    <n v="140709957"/>
+    <s v="H"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="8038"/>
+    <n v="8049"/>
+    <n v="14292"/>
+    <s v="G"/>
+    <n v="977810"/>
+    <s v="G"/>
+    <n v="4371101"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="2756"/>
+    <n v="2768"/>
+    <n v="17984"/>
+    <s v="G"/>
+    <n v="999967"/>
+    <s v="G"/>
+    <n v="3559061"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="1838"/>
+    <n v="1875"/>
+    <n v="23784"/>
+    <s v="G"/>
+    <n v="1367802"/>
+    <s v="G"/>
+    <n v="5104401"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <x v="5"/>
+    <n v="12632"/>
+    <n v="12692"/>
+    <n v="56060"/>
+    <s v="G"/>
+    <n v="3345579"/>
+    <s v="G"/>
+    <n v="13034563"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <x v="6"/>
+    <n v="2149"/>
+    <n v="2472"/>
+    <n v="72784"/>
+    <s v="G"/>
+    <n v="4121032"/>
+    <s v="G"/>
+    <n v="14326554"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <x v="7"/>
+    <n v="944"/>
+    <n v="1459"/>
+    <n v="83598"/>
+    <s v="G"/>
+    <n v="4608853"/>
+    <s v="G"/>
+    <n v="16827316"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <x v="8"/>
+    <n v="15725"/>
+    <n v="16623"/>
+    <n v="212442"/>
+    <s v="G"/>
+    <n v="12075464"/>
+    <s v="G"/>
+    <n v="44188433"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <x v="9"/>
+    <n v="1200"/>
+    <n v="4371"/>
+    <n v="242112"/>
+    <s v="G"/>
+    <n v="16729368"/>
+    <s v="G"/>
+    <n v="96521524"/>
+    <s v="H"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="12"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="432275"/>
+    <n v="523461"/>
+    <n v="7425331"/>
+    <s v="G"/>
+    <n v="267523724"/>
+    <s v="G"/>
+    <n v="1442826664"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="294077"/>
+    <n v="294354"/>
+    <n v="459153"/>
+    <s v="H"/>
+    <n v="16557097"/>
+    <s v="G"/>
+    <n v="104132480"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="63436"/>
+    <n v="63962"/>
+    <n v="414402"/>
+    <s v="G"/>
+    <n v="13122260"/>
+    <s v="G"/>
+    <n v="67544336"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="11"/>
+    <x v="4"/>
+    <n v="35356"/>
+    <n v="36900"/>
+    <n v="469269"/>
+    <s v="G"/>
+    <n v="15466951"/>
+    <s v="G"/>
+    <n v="70961434"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="11"/>
+    <x v="5"/>
+    <n v="392869"/>
+    <n v="395216"/>
+    <n v="1342824"/>
+    <s v="G"/>
+    <n v="45146308"/>
+    <s v="G"/>
+    <n v="242638250"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="11"/>
+    <x v="6"/>
+    <n v="28402"/>
+    <n v="35261"/>
+    <n v="1061250"/>
+    <s v="G"/>
+    <n v="36497492"/>
+    <s v="G"/>
+    <n v="178379426"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="11"/>
+    <x v="7"/>
+    <n v="6566"/>
+    <n v="17506"/>
+    <n v="870605"/>
+    <s v="G"/>
+    <n v="32044560"/>
+    <s v="G"/>
+    <n v="172621604"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="11"/>
+    <x v="8"/>
+    <n v="427837"/>
+    <n v="447983"/>
+    <n v="3274679"/>
+    <s v="G"/>
+    <n v="113688360"/>
+    <s v="G"/>
+    <n v="593639280"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="11"/>
+    <x v="9"/>
+    <n v="4438"/>
+    <n v="75478"/>
+    <n v="4150652"/>
+    <s v="G"/>
+    <n v="153835364"/>
+    <s v="G"/>
+    <n v="849187384"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="13"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="184687"/>
+    <n v="231810"/>
+    <n v="3648418"/>
+    <s v="G"/>
+    <n v="142115204"/>
+    <s v="G"/>
+    <n v="915681701"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="112403"/>
+    <n v="112527"/>
+    <n v="180354"/>
+    <s v="H"/>
+    <n v="6635716"/>
+    <s v="G"/>
+    <n v="45572002"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="3"/>
+    <n v="29441"/>
+    <n v="29751"/>
+    <n v="193191"/>
+    <s v="G"/>
+    <n v="6003619"/>
+    <s v="G"/>
+    <n v="32382282"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="4"/>
+    <n v="18474"/>
+    <n v="19302"/>
+    <n v="245909"/>
+    <s v="G"/>
+    <n v="7997378"/>
+    <s v="G"/>
+    <n v="38994356"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="5"/>
+    <n v="160318"/>
+    <n v="161580"/>
+    <n v="619454"/>
+    <s v="G"/>
+    <n v="20636713"/>
+    <s v="G"/>
+    <n v="116948640"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <n v="16210"/>
+    <n v="20215"/>
+    <n v="591677"/>
+    <s v="G"/>
+    <n v="20213942"/>
+    <s v="G"/>
+    <n v="103968805"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="7"/>
+    <n v="4191"/>
+    <n v="9842"/>
+    <n v="456203"/>
+    <s v="G"/>
+    <n v="17465480"/>
+    <s v="G"/>
+    <n v="108614916"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="8"/>
+    <n v="180719"/>
+    <n v="191637"/>
+    <n v="1667334"/>
+    <s v="G"/>
+    <n v="58316135"/>
+    <s v="G"/>
+    <n v="329532361"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="9"/>
+    <n v="3968"/>
+    <n v="40173"/>
+    <n v="1981084"/>
+    <s v="G"/>
+    <n v="83799069"/>
+    <s v="G"/>
+    <n v="586149340"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="15"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="26889"/>
+    <n v="33388"/>
+    <n v="519060"/>
+    <s v="G"/>
+    <n v="18306259"/>
+    <s v="G"/>
+    <n v="97366729"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="14830"/>
+    <n v="14855"/>
+    <n v="25938"/>
+    <s v="G"/>
+    <n v="979804"/>
+    <s v="G"/>
+    <n v="5036177"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="4953"/>
+    <n v="5036"/>
+    <n v="32474"/>
+    <s v="G"/>
+    <n v="1022673"/>
+    <s v="G"/>
+    <n v="4570710"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="4"/>
+    <n v="3021"/>
+    <n v="3226"/>
+    <n v="40141"/>
+    <s v="G"/>
+    <n v="1295462"/>
+    <s v="G"/>
+    <n v="5384043"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="5"/>
+    <n v="22804"/>
+    <n v="23117"/>
+    <n v="98553"/>
+    <s v="G"/>
+    <n v="3297939"/>
+    <s v="G"/>
+    <n v="14990930"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="6"/>
+    <n v="2568"/>
+    <n v="3609"/>
+    <n v="98350"/>
+    <s v="G"/>
+    <n v="3215712"/>
+    <s v="G"/>
+    <n v="13777317"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <n v="662"/>
+    <n v="1967"/>
+    <n v="91047"/>
+    <s v="G"/>
+    <n v="3112392"/>
+    <s v="G"/>
+    <n v="13555273"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="8"/>
+    <n v="26034"/>
+    <n v="28693"/>
+    <n v="287950"/>
+    <s v="G"/>
+    <n v="9626043"/>
+    <s v="G"/>
+    <n v="42323520"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="9"/>
+    <n v="855"/>
+    <n v="4695"/>
+    <n v="231110"/>
+    <s v="G"/>
+    <n v="8680216"/>
+    <s v="G"/>
+    <n v="55043209"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="16"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="40749"/>
+    <n v="47411"/>
+    <n v="544541"/>
+    <s v="G"/>
+    <n v="17542930"/>
+    <s v="G"/>
+    <n v="102815259"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="24681"/>
+    <n v="24696"/>
+    <n v="39154"/>
+    <s v="H"/>
+    <n v="1227293"/>
+    <s v="G"/>
+    <n v="7667981"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="14"/>
+    <x v="3"/>
+    <n v="6918"/>
+    <n v="6964"/>
+    <n v="45437"/>
+    <s v="G"/>
+    <n v="1154359"/>
+    <s v="G"/>
+    <n v="5872644"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="14"/>
+    <x v="4"/>
+    <n v="4138"/>
+    <n v="4320"/>
+    <n v="54417"/>
+    <s v="G"/>
+    <n v="1485820"/>
+    <s v="G"/>
+    <n v="7142515"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="14"/>
+    <x v="5"/>
+    <n v="35737"/>
+    <n v="35980"/>
+    <n v="139008"/>
+    <s v="G"/>
+    <n v="3867472"/>
+    <s v="G"/>
+    <n v="20683140"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="14"/>
+    <x v="6"/>
+    <n v="3157"/>
+    <n v="4327"/>
+    <n v="111468"/>
+    <s v="G"/>
+    <n v="3249599"/>
+    <s v="G"/>
+    <n v="18334697"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="14"/>
+    <x v="7"/>
+    <n v="750"/>
+    <n v="2082"/>
+    <n v="75041"/>
+    <s v="G"/>
+    <n v="2283556"/>
+    <s v="G"/>
+    <n v="12939487"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="14"/>
+    <x v="8"/>
+    <n v="39644"/>
+    <n v="42389"/>
+    <n v="325517"/>
+    <s v="G"/>
+    <n v="9400627"/>
+    <s v="G"/>
+    <n v="51957324"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="14"/>
+    <x v="9"/>
+    <n v="1105"/>
+    <n v="5022"/>
+    <n v="219024"/>
+    <s v="G"/>
+    <n v="8142303"/>
+    <s v="G"/>
+    <n v="50857935"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="17"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="264289"/>
+    <n v="325206"/>
+    <n v="5398634"/>
+    <s v="G"/>
+    <n v="243268927"/>
+    <s v="G"/>
+    <n v="1465618338"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="158172"/>
+    <n v="158344"/>
+    <n v="253902"/>
+    <s v="G"/>
+    <n v="10751359"/>
+    <s v="G"/>
+    <n v="64336796"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="15"/>
+    <x v="3"/>
+    <n v="43300"/>
+    <n v="43770"/>
+    <n v="283891"/>
+    <s v="G"/>
+    <n v="9847372"/>
+    <s v="G"/>
+    <n v="49949700"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="15"/>
+    <x v="4"/>
+    <n v="27447"/>
+    <n v="28734"/>
+    <n v="364172"/>
+    <s v="G"/>
+    <n v="13614593"/>
+    <s v="G"/>
+    <n v="64902065"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="15"/>
+    <x v="5"/>
+    <n v="228919"/>
+    <n v="230848"/>
+    <n v="901965"/>
+    <s v="G"/>
+    <n v="34213324"/>
+    <s v="G"/>
+    <n v="179188561"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="15"/>
+    <x v="6"/>
+    <n v="24768"/>
+    <n v="31031"/>
+    <n v="929847"/>
+    <s v="G"/>
+    <n v="37491635"/>
+    <s v="G"/>
+    <n v="183122275"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="15"/>
+    <x v="7"/>
+    <n v="6183"/>
+    <n v="15112"/>
+    <n v="782792"/>
+    <s v="G"/>
+    <n v="33439157"/>
+    <s v="G"/>
+    <n v="178935209"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="15"/>
+    <x v="8"/>
+    <n v="259870"/>
+    <n v="276991"/>
+    <n v="2614604"/>
+    <s v="G"/>
+    <n v="105144116"/>
+    <s v="G"/>
+    <n v="541246045"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="15"/>
+    <x v="9"/>
+    <n v="4419"/>
+    <n v="48215"/>
+    <n v="2784030"/>
+    <s v="G"/>
+    <n v="138124811"/>
+    <s v="G"/>
+    <n v="924372293"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="18"/>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="118218"/>
+    <n v="152858"/>
+    <n v="2648219"/>
+    <s v="G"/>
+    <n v="94807149"/>
+    <s v="G"/>
+    <n v="623293704"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="64866"/>
+    <n v="64935"/>
+    <n v="112133"/>
+    <s v="G"/>
+    <n v="3429792"/>
+    <s v="G"/>
+    <n v="20824756"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="21698"/>
+    <n v="21938"/>
+    <n v="142724"/>
+    <s v="G"/>
+    <n v="3858584"/>
+    <s v="G"/>
+    <n v="19157922"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="16"/>
+    <x v="4"/>
+    <n v="13690"/>
+    <n v="14412"/>
+    <n v="182748"/>
+    <s v="G"/>
+    <n v="5216978"/>
+    <s v="G"/>
+    <n v="24378082"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="16"/>
+    <x v="5"/>
+    <n v="100254"/>
+    <n v="101285"/>
+    <n v="437605"/>
+    <s v="G"/>
+    <n v="12505354"/>
+    <s v="G"/>
+    <n v="64360760"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="16"/>
+    <x v="6"/>
+    <n v="11972"/>
+    <n v="15978"/>
+    <n v="444737"/>
+    <s v="G"/>
+    <n v="14129512"/>
+    <s v="G"/>
+    <n v="74419835"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="16"/>
+    <x v="7"/>
+    <n v="3058"/>
+    <n v="8890"/>
+    <n v="395402"/>
+    <s v="G"/>
+    <n v="13971758"/>
+    <s v="G"/>
+    <n v="80970291"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="16"/>
+    <x v="8"/>
+    <n v="115284"/>
+    <n v="126153"/>
+    <n v="1277744"/>
+    <s v="G"/>
+    <n v="40606624"/>
+    <s v="G"/>
+    <n v="219750886"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="16"/>
+    <x v="9"/>
+    <n v="2934"/>
+    <n v="26705"/>
+    <n v="1370475"/>
+    <s v="G"/>
+    <n v="54200525"/>
+    <s v="G"/>
+    <n v="403542818"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="19"/>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="65859"/>
+    <n v="83158"/>
+    <n v="1303436"/>
+    <s v="G"/>
+    <n v="43417218"/>
+    <s v="G"/>
+    <n v="318224005"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="37476"/>
+    <n v="37512"/>
+    <n v="62845"/>
+    <s v="G"/>
+    <n v="1783513"/>
+    <s v="G"/>
+    <n v="11286450"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="17"/>
+    <x v="3"/>
+    <n v="11814"/>
+    <n v="11946"/>
+    <n v="77477"/>
+    <s v="G"/>
+    <n v="1931890"/>
+    <s v="G"/>
+    <n v="11169638"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="17"/>
+    <x v="4"/>
+    <n v="7122"/>
+    <n v="7687"/>
+    <n v="94458"/>
+    <s v="G"/>
+    <n v="2587542"/>
+    <s v="G"/>
+    <n v="14501896"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="17"/>
+    <x v="5"/>
+    <n v="56412"/>
+    <n v="57145"/>
+    <n v="234780"/>
+    <s v="G"/>
+    <n v="6302945"/>
+    <s v="G"/>
+    <n v="36957984"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="17"/>
+    <x v="6"/>
+    <n v="6113"/>
+    <n v="9103"/>
+    <n v="229263"/>
+    <s v="G"/>
+    <n v="6930661"/>
+    <s v="G"/>
+    <n v="41850550"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="17"/>
+    <x v="7"/>
+    <n v="1598"/>
+    <n v="5338"/>
+    <n v="204460"/>
+    <s v="G"/>
+    <n v="6767314"/>
+    <s v="G"/>
+    <n v="43682031"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="17"/>
+    <x v="8"/>
+    <n v="64123"/>
+    <n v="71586"/>
+    <n v="668503"/>
+    <s v="G"/>
+    <n v="20000920"/>
+    <s v="G"/>
+    <n v="122490565"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="17"/>
+    <x v="9"/>
+    <n v="1736"/>
+    <n v="11572"/>
+    <n v="634933"/>
+    <s v="G"/>
+    <n v="23416298"/>
+    <s v="G"/>
+    <n v="195733440"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="20"/>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="62092"/>
+    <n v="77157"/>
+    <n v="1169099"/>
+    <s v="G"/>
+    <n v="42022753"/>
+    <s v="G"/>
+    <n v="296868979"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="35317"/>
+    <n v="35343"/>
+    <n v="60497"/>
+    <s v="H"/>
+    <n v="2000662"/>
+    <s v="G"/>
+    <n v="12283324"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="18"/>
+    <x v="3"/>
+    <n v="10775"/>
+    <n v="10906"/>
+    <n v="70380"/>
+    <s v="G"/>
+    <n v="1887165"/>
+    <s v="G"/>
+    <n v="10649964"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="18"/>
+    <x v="4"/>
+    <n v="6552"/>
+    <n v="6990"/>
+    <n v="87094"/>
+    <s v="G"/>
+    <n v="2582319"/>
+    <s v="G"/>
+    <n v="13756038"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="18"/>
+    <x v="5"/>
+    <n v="52644"/>
+    <n v="53239"/>
+    <n v="217971"/>
+    <s v="G"/>
+    <n v="6470146"/>
+    <s v="G"/>
+    <n v="36689326"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="18"/>
+    <x v="6"/>
+    <n v="5886"/>
+    <n v="8131"/>
+    <n v="214699"/>
+    <s v="G"/>
+    <n v="6898630"/>
+    <s v="G"/>
+    <n v="38165379"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="18"/>
+    <x v="7"/>
+    <n v="1617"/>
+    <n v="4392"/>
+    <n v="191314"/>
+    <s v="G"/>
+    <n v="6459447"/>
+    <s v="G"/>
+    <n v="40986932"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="18"/>
+    <x v="8"/>
+    <n v="60147"/>
+    <n v="65762"/>
+    <n v="623984"/>
+    <s v="G"/>
+    <n v="19828223"/>
+    <s v="G"/>
+    <n v="115841637"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="18"/>
+    <x v="9"/>
+    <n v="1945"/>
+    <n v="11395"/>
+    <n v="545115"/>
+    <s v="G"/>
+    <n v="22194530"/>
+    <s v="G"/>
+    <n v="181027342"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="21"/>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="72848"/>
+    <n v="93539"/>
+    <n v="1550192"/>
+    <s v="G"/>
+    <n v="52397804"/>
+    <s v="G"/>
+    <n v="394374626"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="19"/>
+    <x v="2"/>
+    <n v="39407"/>
+    <n v="39442"/>
+    <n v="69804"/>
+    <s v="G"/>
+    <n v="1998752"/>
+    <s v="G"/>
+    <n v="12703695"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="19"/>
+    <x v="3"/>
+    <n v="13468"/>
+    <n v="13583"/>
+    <n v="88611"/>
+    <s v="G"/>
+    <n v="2284389"/>
+    <s v="G"/>
+    <n v="12640581"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="19"/>
+    <x v="4"/>
+    <n v="8453"/>
+    <n v="8872"/>
+    <n v="112152"/>
+    <s v="G"/>
+    <n v="3030705"/>
+    <s v="G"/>
+    <n v="19420550"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="19"/>
+    <x v="5"/>
+    <n v="61328"/>
+    <n v="61897"/>
+    <n v="270567"/>
+    <s v="G"/>
+    <n v="7313846"/>
+    <s v="G"/>
+    <n v="44764826"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="19"/>
+    <x v="6"/>
+    <n v="7313"/>
+    <n v="9808"/>
+    <n v="266855"/>
+    <s v="G"/>
+    <n v="8179099"/>
+    <s v="G"/>
+    <n v="43803431"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="19"/>
+    <x v="7"/>
+    <n v="1921"/>
+    <n v="5171"/>
+    <n v="225134"/>
+    <s v="G"/>
+    <n v="7126028"/>
+    <s v="G"/>
+    <n v="40679431"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="19"/>
+    <x v="8"/>
+    <n v="70562"/>
+    <n v="76876"/>
+    <n v="762556"/>
+    <s v="G"/>
+    <n v="22618973"/>
+    <s v="G"/>
+    <n v="129247688"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="19"/>
+    <x v="9"/>
+    <n v="2286"/>
+    <n v="16663"/>
+    <n v="787636"/>
+    <s v="G"/>
+    <n v="29778831"/>
+    <s v="G"/>
+    <n v="265126938"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="22"/>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="83159"/>
+    <n v="104622"/>
+    <n v="1646151"/>
+    <s v="G"/>
+    <n v="59189702"/>
+    <s v="G"/>
+    <n v="528435242"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="20"/>
+    <x v="2"/>
+    <n v="45199"/>
+    <n v="45257"/>
+    <n v="78964"/>
+    <s v="G"/>
+    <n v="2754127"/>
+    <s v="G"/>
+    <n v="16601499"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="20"/>
+    <x v="3"/>
+    <n v="15552"/>
+    <n v="15701"/>
+    <n v="102536"/>
+    <s v="G"/>
+    <n v="2908318"/>
+    <s v="G"/>
+    <n v="15670280"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="20"/>
+    <x v="4"/>
+    <n v="9606"/>
+    <n v="10117"/>
+    <n v="128332"/>
+    <s v="G"/>
+    <n v="3812360"/>
+    <s v="G"/>
+    <n v="19487570"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="20"/>
+    <x v="5"/>
+    <n v="70357"/>
+    <n v="71075"/>
+    <n v="309832"/>
+    <s v="G"/>
+    <n v="9474805"/>
+    <s v="G"/>
+    <n v="51759349"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="20"/>
+    <x v="6"/>
+    <n v="8713"/>
+    <n v="11546"/>
+    <n v="332571"/>
+    <s v="G"/>
+    <n v="10542694"/>
+    <s v="G"/>
+    <n v="53836798"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="20"/>
+    <x v="7"/>
+    <n v="1994"/>
+    <n v="5204"/>
+    <n v="255967"/>
+    <s v="G"/>
+    <n v="9135008"/>
+    <s v="G"/>
+    <n v="60394478"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="20"/>
+    <x v="8"/>
+    <n v="81064"/>
+    <n v="87825"/>
+    <n v="898370"/>
+    <s v="G"/>
+    <n v="29152507"/>
+    <s v="G"/>
+    <n v="165990625"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="20"/>
+    <x v="9"/>
+    <n v="2095"/>
+    <n v="16797"/>
+    <n v="747781"/>
+    <s v="G"/>
+    <n v="30037195"/>
+    <s v="G"/>
+    <n v="362444617"/>
+    <s v="H"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="23"/>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="35776"/>
+    <n v="42506"/>
+    <n v="503789"/>
+    <s v="G"/>
+    <n v="17049254"/>
+    <s v="G"/>
+    <n v="92160872"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="21"/>
+    <x v="2"/>
+    <n v="22090"/>
+    <n v="22108"/>
+    <n v="34832"/>
+    <s v="G"/>
+    <n v="1137017"/>
+    <s v="G"/>
+    <n v="6419995"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="21"/>
+    <x v="3"/>
+    <n v="5927"/>
+    <n v="5990"/>
+    <n v="39024"/>
+    <s v="G"/>
+    <n v="1088376"/>
+    <s v="G"/>
+    <n v="5252890"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="21"/>
+    <x v="4"/>
+    <n v="3501"/>
+    <n v="3685"/>
+    <n v="46295"/>
+    <s v="G"/>
+    <n v="1346070"/>
+    <s v="G"/>
+    <n v="6126112"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="21"/>
+    <x v="5"/>
+    <n v="31518"/>
+    <n v="31783"/>
+    <n v="120151"/>
+    <s v="G"/>
+    <n v="3571463"/>
+    <s v="G"/>
+    <n v="17798997"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="21"/>
+    <x v="6"/>
+    <n v="2661"/>
+    <n v="3703"/>
+    <n v="96690"/>
+    <s v="G"/>
+    <n v="3023779"/>
+    <s v="G"/>
+    <n v="13690540"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="21"/>
+    <x v="7"/>
+    <n v="659"/>
+    <n v="2293"/>
+    <n v="83782"/>
+    <s v="G"/>
+    <n v="2796216"/>
+    <s v="G"/>
+    <n v="13063463"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="21"/>
+    <x v="8"/>
+    <n v="34838"/>
+    <n v="37779"/>
+    <n v="300623"/>
+    <s v="G"/>
+    <n v="9391458"/>
+    <s v="G"/>
+    <n v="44553000"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="21"/>
+    <x v="9"/>
+    <n v="938"/>
+    <n v="4727"/>
+    <n v="203166"/>
+    <s v="G"/>
+    <n v="7657796"/>
+    <s v="G"/>
+    <n v="47607872"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="24"/>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="115301"/>
+    <n v="141332"/>
+    <n v="2239181"/>
+    <s v="G"/>
+    <n v="99467512"/>
+    <s v="G"/>
+    <n v="492549009"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="66382"/>
+    <n v="66445"/>
+    <n v="112150"/>
+    <s v="G"/>
+    <n v="4557723"/>
+    <s v="G"/>
+    <n v="24186539"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="22"/>
+    <x v="3"/>
+    <n v="19794"/>
+    <n v="19977"/>
+    <n v="130036"/>
+    <s v="G"/>
+    <n v="4518336"/>
+    <s v="G"/>
+    <n v="20389533"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="22"/>
+    <x v="4"/>
+    <n v="12410"/>
+    <n v="12896"/>
+    <n v="165080"/>
+    <s v="G"/>
+    <n v="6174448"/>
+    <s v="G"/>
+    <n v="25450915"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="22"/>
+    <x v="5"/>
+    <n v="98586"/>
+    <n v="99318"/>
+    <n v="407266"/>
+    <s v="G"/>
+    <n v="15250507"/>
+    <s v="G"/>
+    <n v="70026987"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="22"/>
+    <x v="6"/>
+    <n v="11247"/>
+    <n v="13780"/>
+    <n v="420928"/>
+    <s v="G"/>
+    <n v="16957801"/>
+    <s v="G"/>
+    <n v="67182869"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="22"/>
+    <x v="7"/>
+    <n v="2809"/>
+    <n v="6309"/>
+    <n v="344153"/>
+    <s v="G"/>
+    <n v="15103802"/>
+    <s v="G"/>
+    <n v="64936087"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="22"/>
+    <x v="8"/>
+    <n v="112642"/>
+    <n v="119407"/>
+    <n v="1172347"/>
+    <s v="G"/>
+    <n v="47312110"/>
+    <s v="G"/>
+    <n v="202145943"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="22"/>
+    <x v="9"/>
+    <n v="2659"/>
+    <n v="21925"/>
+    <n v="1066834"/>
+    <s v="G"/>
+    <n v="52155402"/>
+    <s v="G"/>
+    <n v="290403066"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="25"/>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="144767"/>
+    <n v="176701"/>
+    <n v="3073941"/>
+    <s v="G"/>
+    <n v="157235733"/>
+    <s v="G"/>
+    <n v="755701579"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="23"/>
+    <x v="2"/>
+    <n v="83810"/>
+    <n v="83908"/>
+    <n v="142745"/>
+    <s v="G"/>
+    <n v="6657717"/>
+    <s v="G"/>
+    <n v="44999663"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="23"/>
+    <x v="3"/>
+    <n v="25366"/>
+    <n v="25669"/>
+    <n v="166588"/>
+    <s v="G"/>
+    <n v="6417320"/>
+    <s v="G"/>
+    <n v="29372037"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="23"/>
+    <x v="4"/>
+    <n v="15508"/>
+    <n v="16195"/>
+    <n v="207104"/>
+    <s v="G"/>
+    <n v="8633276"/>
+    <s v="G"/>
+    <n v="35581514"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="23"/>
+    <x v="5"/>
+    <n v="124684"/>
+    <n v="125772"/>
+    <n v="516437"/>
+    <s v="G"/>
+    <n v="21708313"/>
+    <s v="G"/>
+    <n v="109953214"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="23"/>
+    <x v="6"/>
+    <n v="13608"/>
+    <n v="16886"/>
+    <n v="504106"/>
+    <s v="G"/>
+    <n v="23402360"/>
+    <s v="G"/>
+    <n v="96800662"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="23"/>
+    <x v="7"/>
+    <n v="3491"/>
+    <n v="8788"/>
+    <n v="448892"/>
+    <s v="G"/>
+    <n v="22506997"/>
+    <s v="G"/>
+    <n v="104202172"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="23"/>
+    <x v="8"/>
+    <n v="141783"/>
+    <n v="151446"/>
+    <n v="1469435"/>
+    <s v="G"/>
+    <n v="67617670"/>
+    <s v="G"/>
+    <n v="310956048"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="23"/>
+    <x v="9"/>
+    <n v="2984"/>
+    <n v="25255"/>
+    <n v="1604506"/>
+    <s v="G"/>
+    <n v="89618063"/>
+    <s v="G"/>
+    <n v="444745531"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="26"/>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="188485"/>
+    <n v="235422"/>
+    <n v="3687441"/>
+    <s v="G"/>
+    <n v="150946992"/>
+    <s v="G"/>
+    <n v="897717277"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="24"/>
+    <x v="2"/>
+    <n v="109377"/>
+    <n v="109489"/>
+    <n v="181388"/>
+    <s v="G"/>
+    <n v="6683339"/>
+    <s v="G"/>
+    <n v="43027587"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="24"/>
+    <x v="3"/>
+    <n v="34161"/>
+    <n v="34594"/>
+    <n v="224474"/>
+    <s v="G"/>
+    <n v="6853666"/>
+    <s v="G"/>
+    <n v="32730013"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="24"/>
+    <x v="4"/>
+    <n v="20607"/>
+    <n v="21696"/>
+    <n v="275161"/>
+    <s v="G"/>
+    <n v="8986885"/>
+    <s v="G"/>
+    <n v="40777445"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="24"/>
+    <x v="5"/>
+    <n v="164145"/>
+    <n v="165779"/>
+    <n v="681023"/>
+    <s v="G"/>
+    <n v="22523890"/>
+    <s v="G"/>
+    <n v="116535045"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="24"/>
+    <x v="6"/>
+    <n v="17327"/>
+    <n v="23144"/>
+    <n v="660245"/>
+    <s v="G"/>
+    <n v="24001798"/>
+    <s v="G"/>
+    <n v="108753171"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="24"/>
+    <x v="7"/>
+    <n v="3948"/>
+    <n v="11328"/>
+    <n v="561380"/>
+    <s v="G"/>
+    <n v="20706810"/>
+    <s v="G"/>
+    <n v="102306186"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="24"/>
+    <x v="8"/>
+    <n v="185420"/>
+    <n v="200251"/>
+    <n v="1902648"/>
+    <s v="G"/>
+    <n v="67232498"/>
+    <s v="G"/>
+    <n v="327594402"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="24"/>
+    <x v="9"/>
+    <n v="3065"/>
+    <n v="35171"/>
+    <n v="1784793"/>
+    <s v="G"/>
+    <n v="83714494"/>
+    <s v="G"/>
+    <n v="570122875"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="27"/>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="123736"/>
+    <n v="151526"/>
+    <n v="2525900"/>
+    <s v="G"/>
+    <n v="107167906"/>
+    <s v="G"/>
+    <n v="608141273"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="25"/>
+    <x v="2"/>
+    <n v="73928"/>
+    <n v="74002"/>
+    <n v="114180"/>
+    <s v="H"/>
+    <n v="4265577"/>
+    <s v="G"/>
+    <n v="26735244"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="25"/>
+    <x v="3"/>
+    <n v="19838"/>
+    <n v="20062"/>
+    <n v="130699"/>
+    <s v="G"/>
+    <n v="3995896"/>
+    <s v="G"/>
+    <n v="22202979"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="25"/>
+    <x v="4"/>
+    <n v="12852"/>
+    <n v="13558"/>
+    <n v="172357"/>
+    <s v="G"/>
+    <n v="5436808"/>
+    <s v="G"/>
+    <n v="32523371"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="25"/>
+    <x v="5"/>
+    <n v="106618"/>
+    <n v="107622"/>
+    <n v="417236"/>
+    <s v="G"/>
+    <n v="13698281"/>
+    <s v="G"/>
+    <n v="81461594"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="25"/>
+    <x v="6"/>
+    <n v="11766"/>
+    <n v="15627"/>
+    <n v="445349"/>
+    <s v="G"/>
+    <n v="15537457"/>
+    <s v="G"/>
+    <n v="77905911"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="25"/>
+    <x v="7"/>
+    <n v="2813"/>
+    <n v="7965"/>
+    <n v="387492"/>
+    <s v="G"/>
+    <n v="14977151"/>
+    <s v="G"/>
+    <n v="72420993"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="25"/>
+    <x v="8"/>
+    <n v="121197"/>
+    <n v="131214"/>
+    <n v="1250077"/>
+    <s v="G"/>
+    <n v="44212889"/>
+    <s v="G"/>
+    <n v="231788498"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="25"/>
+    <x v="9"/>
+    <n v="2539"/>
+    <n v="20312"/>
+    <n v="1275823"/>
+    <s v="G"/>
+    <n v="62955017"/>
+    <s v="G"/>
+    <n v="376352775"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="28"/>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="48675"/>
+    <n v="61874"/>
+    <n v="941328"/>
+    <s v="G"/>
+    <n v="28572483"/>
+    <s v="G"/>
+    <n v="197942873"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="26"/>
+    <x v="2"/>
+    <n v="27152"/>
+    <n v="27180"/>
+    <n v="48808"/>
+    <s v="G"/>
+    <n v="1350899"/>
+    <s v="G"/>
+    <n v="9048480"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="26"/>
+    <x v="3"/>
+    <n v="9043"/>
+    <n v="9139"/>
+    <n v="59119"/>
+    <s v="G"/>
+    <n v="1453147"/>
+    <s v="G"/>
+    <n v="7858543"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="26"/>
+    <x v="4"/>
+    <n v="5385"/>
+    <n v="5661"/>
+    <n v="71523"/>
+    <s v="G"/>
+    <n v="1870924"/>
+    <s v="G"/>
+    <n v="10343549"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="26"/>
+    <x v="5"/>
+    <n v="41580"/>
+    <n v="41980"/>
+    <n v="179450"/>
+    <s v="G"/>
+    <n v="4674970"/>
+    <s v="G"/>
+    <n v="27250572"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="26"/>
+    <x v="6"/>
+    <n v="4392"/>
+    <n v="5912"/>
+    <n v="158861"/>
+    <s v="G"/>
+    <n v="4506928"/>
+    <s v="G"/>
+    <n v="25871816"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="26"/>
+    <x v="7"/>
+    <n v="1132"/>
+    <n v="3376"/>
+    <n v="129626"/>
+    <s v="G"/>
+    <n v="3834027"/>
+    <s v="G"/>
+    <n v="22697213"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="26"/>
+    <x v="8"/>
+    <n v="47104"/>
+    <n v="51268"/>
+    <n v="467937"/>
+    <s v="G"/>
+    <n v="13015925"/>
+    <s v="G"/>
+    <n v="75819601"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="26"/>
+    <x v="9"/>
+    <n v="1571"/>
+    <n v="10606"/>
+    <n v="473391"/>
+    <s v="G"/>
+    <n v="15556558"/>
+    <s v="G"/>
+    <n v="122123272"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="29"/>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="122573"/>
+    <n v="154483"/>
+    <n v="2457827"/>
+    <s v="G"/>
+    <n v="91285825"/>
+    <s v="G"/>
+    <n v="553021231"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="27"/>
+    <x v="2"/>
+    <n v="71403"/>
+    <n v="71503"/>
+    <n v="120845"/>
+    <s v="G"/>
+    <n v="3606728"/>
+    <s v="G"/>
+    <n v="22610252"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="27"/>
+    <x v="3"/>
+    <n v="20654"/>
+    <n v="20862"/>
+    <n v="135345"/>
+    <s v="G"/>
+    <n v="3812002"/>
+    <s v="G"/>
+    <n v="20015221"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="27"/>
+    <x v="4"/>
+    <n v="13080"/>
+    <n v="13727"/>
+    <n v="173957"/>
+    <s v="G"/>
+    <n v="5227512"/>
+    <s v="G"/>
+    <n v="25824559"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="27"/>
+    <x v="5"/>
+    <n v="105137"/>
+    <n v="106092"/>
+    <n v="430147"/>
+    <s v="G"/>
+    <n v="12646242"/>
+    <s v="G"/>
+    <n v="68450032"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="27"/>
+    <x v="6"/>
+    <n v="11854"/>
+    <n v="15862"/>
+    <n v="441536"/>
+    <s v="G"/>
+    <n v="14119115"/>
+    <s v="G"/>
+    <n v="77242226"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="27"/>
+    <x v="7"/>
+    <n v="2787"/>
+    <n v="7956"/>
+    <n v="335395"/>
+    <s v="G"/>
+    <n v="11782418"/>
+    <s v="G"/>
+    <n v="58706059"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="27"/>
+    <x v="8"/>
+    <n v="119778"/>
+    <n v="129910"/>
+    <n v="1207078"/>
+    <s v="G"/>
+    <n v="38547775"/>
+    <s v="G"/>
+    <n v="204398317"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="27"/>
+    <x v="9"/>
+    <n v="2795"/>
+    <n v="24573"/>
+    <n v="1250749"/>
+    <s v="G"/>
+    <n v="52738050"/>
+    <s v="G"/>
+    <n v="348622914"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="30"/>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="33036"/>
+    <n v="37755"/>
+    <n v="353807"/>
+    <s v="G"/>
+    <n v="10646436"/>
+    <s v="G"/>
+    <n v="69263093"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="28"/>
+    <x v="2"/>
+    <n v="20653"/>
+    <n v="20684"/>
+    <n v="32710"/>
+    <s v="G"/>
+    <n v="942386"/>
+    <s v="G"/>
+    <n v="5930833"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="28"/>
+    <x v="3"/>
+    <n v="5679"/>
+    <n v="5720"/>
+    <n v="37204"/>
+    <s v="G"/>
+    <n v="916534"/>
+    <s v="G"/>
+    <n v="4849571"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="28"/>
+    <x v="4"/>
+    <n v="3178"/>
+    <n v="3375"/>
+    <n v="42038"/>
+    <s v="G"/>
+    <n v="1068927"/>
+    <s v="G"/>
+    <n v="5601905"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="28"/>
+    <x v="5"/>
+    <n v="29510"/>
+    <n v="29779"/>
+    <n v="111952"/>
+    <s v="G"/>
+    <n v="2927847"/>
+    <s v="G"/>
+    <n v="16382309"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="28"/>
+    <x v="6"/>
+    <n v="2306"/>
+    <n v="3149"/>
+    <n v="80482"/>
+    <s v="G"/>
+    <n v="2145108"/>
+    <s v="G"/>
+    <n v="12472286"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="28"/>
+    <x v="7"/>
+    <n v="469"/>
+    <n v="1335"/>
+    <n v="52814"/>
+    <s v="G"/>
+    <n v="1677240"/>
+    <s v="G"/>
+    <n v="8561870"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="28"/>
+    <x v="8"/>
+    <n v="32285"/>
+    <n v="34263"/>
+    <n v="245248"/>
+    <s v="G"/>
+    <n v="6750195"/>
+    <s v="G"/>
+    <n v="37416465"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="28"/>
+    <x v="9"/>
+    <n v="751"/>
+    <n v="3492"/>
+    <n v="108559"/>
+    <s v="G"/>
+    <n v="3896241"/>
+    <s v="G"/>
+    <n v="31846628"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="31"/>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="42791"/>
+    <n v="52517"/>
+    <n v="795545"/>
+    <s v="G"/>
+    <n v="27219151"/>
+    <s v="G"/>
+    <n v="190898289"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="29"/>
+    <x v="2"/>
+    <n v="24933"/>
+    <n v="24965"/>
+    <n v="41446"/>
+    <s v="H"/>
+    <n v="1175749"/>
+    <s v="G"/>
+    <n v="7803179"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="29"/>
+    <x v="3"/>
+    <n v="7225"/>
+    <n v="7319"/>
+    <n v="47179"/>
+    <s v="G"/>
+    <n v="1199046"/>
+    <s v="G"/>
+    <n v="9630057"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="29"/>
+    <x v="4"/>
+    <n v="4511"/>
+    <n v="4816"/>
+    <n v="59859"/>
+    <s v="G"/>
+    <n v="1653618"/>
+    <s v="G"/>
+    <n v="8171817"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="29"/>
+    <x v="5"/>
+    <n v="36669"/>
+    <n v="37100"/>
+    <n v="148484"/>
+    <s v="G"/>
+    <n v="4028413"/>
+    <s v="G"/>
+    <n v="25605053"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="29"/>
+    <x v="6"/>
+    <n v="3783"/>
+    <n v="5341"/>
+    <n v="139436"/>
+    <s v="G"/>
+    <n v="4235878"/>
+    <s v="G"/>
+    <n v="23913917"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="29"/>
+    <x v="7"/>
+    <n v="953"/>
+    <n v="2957"/>
+    <n v="111193"/>
+    <s v="G"/>
+    <n v="3532530"/>
+    <s v="G"/>
+    <n v="21986532"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="29"/>
+    <x v="8"/>
+    <n v="41405"/>
+    <n v="45398"/>
+    <n v="399113"/>
+    <s v="G"/>
+    <n v="11796821"/>
+    <s v="G"/>
+    <n v="71505502"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="29"/>
+    <x v="9"/>
+    <n v="1386"/>
+    <n v="7119"/>
+    <n v="396432"/>
+    <s v="G"/>
+    <n v="15422330"/>
+    <s v="G"/>
+    <n v="119392787"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="32"/>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="51342"/>
+    <n v="62839"/>
+    <n v="1195806"/>
+    <s v="G"/>
+    <n v="44422686"/>
+    <s v="G"/>
+    <n v="220467770"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="29200"/>
+    <n v="29252"/>
+    <n v="43967"/>
+    <s v="G"/>
+    <n v="2133087"/>
+    <s v="G"/>
+    <n v="11572206"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <x v="3"/>
+    <n v="8012"/>
+    <n v="8084"/>
+    <n v="52681"/>
+    <s v="G"/>
+    <n v="1802095"/>
+    <s v="G"/>
+    <n v="8273493"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <x v="4"/>
+    <n v="5334"/>
+    <n v="5578"/>
+    <n v="70924"/>
+    <s v="G"/>
+    <n v="2411126"/>
+    <s v="G"/>
+    <n v="10984847"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <x v="5"/>
+    <n v="42546"/>
+    <n v="42914"/>
+    <n v="167572"/>
+    <s v="G"/>
+    <n v="6346308"/>
+    <s v="G"/>
+    <n v="30830546"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <x v="6"/>
+    <n v="4918"/>
+    <n v="5843"/>
+    <n v="175040"/>
+    <s v="G"/>
+    <n v="6311401"/>
+    <s v="G"/>
+    <n v="26490377"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <x v="7"/>
+    <n v="1738"/>
+    <n v="3329"/>
+    <n v="169626"/>
+    <s v="G"/>
+    <n v="6185172"/>
+    <s v="G"/>
+    <n v="30842029"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <x v="8"/>
+    <n v="49202"/>
+    <n v="52086"/>
+    <n v="512238"/>
+    <s v="G"/>
+    <n v="18842881"/>
+    <s v="G"/>
+    <n v="88162952"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <x v="9"/>
+    <n v="2140"/>
+    <n v="10753"/>
+    <n v="683568"/>
+    <s v="G"/>
+    <n v="25579805"/>
+    <s v="G"/>
+    <n v="132304818"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="33"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="33001"/>
+    <n v="39453"/>
+    <n v="573209"/>
+    <s v="G"/>
+    <n v="22791071"/>
+    <s v="G"/>
+    <n v="113217996"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="18555"/>
+    <n v="18577"/>
+    <n v="31539"/>
+    <s v="G"/>
+    <n v="1276370"/>
+    <s v="G"/>
+    <n v="7167640"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="31"/>
+    <x v="3"/>
+    <n v="5900"/>
+    <n v="5942"/>
+    <n v="38700"/>
+    <s v="G"/>
+    <n v="1356078"/>
+    <s v="G"/>
+    <n v="6000904"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="31"/>
+    <x v="4"/>
+    <n v="3500"/>
+    <n v="3669"/>
+    <n v="46693"/>
+    <s v="G"/>
+    <n v="1681422"/>
+    <s v="G"/>
+    <n v="6851958"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="31"/>
+    <x v="5"/>
+    <n v="27955"/>
+    <n v="28188"/>
+    <n v="116932"/>
+    <s v="G"/>
+    <n v="4313870"/>
+    <s v="G"/>
+    <n v="20020502"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="31"/>
+    <x v="6"/>
+    <n v="3125"/>
+    <n v="3842"/>
+    <n v="109604"/>
+    <s v="G"/>
+    <n v="4276145"/>
+    <s v="G"/>
+    <n v="19335920"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="31"/>
+    <x v="7"/>
+    <n v="785"/>
+    <n v="1903"/>
+    <n v="83244"/>
+    <s v="G"/>
+    <n v="3263402"/>
+    <s v="G"/>
+    <n v="15096623"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="31"/>
+    <x v="8"/>
+    <n v="31865"/>
+    <n v="33933"/>
+    <n v="309780"/>
+    <s v="G"/>
+    <n v="11853417"/>
+    <s v="G"/>
+    <n v="54453045"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="31"/>
+    <x v="9"/>
+    <n v="1136"/>
+    <n v="5520"/>
+    <n v="263429"/>
+    <s v="G"/>
+    <n v="10937654"/>
+    <s v="G"/>
+    <n v="58764951"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="34"/>
+    <x v="32"/>
+    <x v="1"/>
+    <n v="208002"/>
+    <n v="243350"/>
+    <n v="3661679"/>
+    <s v="G"/>
+    <n v="184164748"/>
+    <s v="G"/>
+    <n v="1090858952"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="128741"/>
+    <n v="128850"/>
+    <n v="218308"/>
+    <s v="G"/>
+    <n v="8928342"/>
+    <s v="G"/>
+    <n v="56518227"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="32"/>
+    <x v="3"/>
+    <n v="34476"/>
+    <n v="34743"/>
+    <n v="225397"/>
+    <s v="G"/>
+    <n v="8441139"/>
+    <s v="G"/>
+    <n v="46616919"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="32"/>
+    <x v="4"/>
+    <n v="20321"/>
+    <n v="20984"/>
+    <n v="270291"/>
+    <s v="G"/>
+    <n v="11194947"/>
+    <s v="G"/>
+    <n v="53717410"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="32"/>
+    <x v="5"/>
+    <n v="183538"/>
+    <n v="184577"/>
+    <n v="713996"/>
+    <s v="G"/>
+    <n v="28564428"/>
+    <s v="G"/>
+    <n v="156852556"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="32"/>
+    <x v="6"/>
+    <n v="17222"/>
+    <n v="20104"/>
+    <n v="637974"/>
+    <s v="G"/>
+    <n v="28461176"/>
+    <s v="G"/>
+    <n v="143792291"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="32"/>
+    <x v="7"/>
+    <n v="4020"/>
+    <n v="7999"/>
+    <n v="506947"/>
+    <s v="G"/>
+    <n v="23189147"/>
+    <s v="G"/>
+    <n v="116224794"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="32"/>
+    <x v="8"/>
+    <n v="204780"/>
+    <n v="212680"/>
+    <n v="1858917"/>
+    <s v="G"/>
+    <n v="80214751"/>
+    <s v="G"/>
+    <n v="416869641"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="32"/>
+    <x v="9"/>
+    <n v="3222"/>
+    <n v="30670"/>
+    <n v="1802762"/>
+    <s v="G"/>
+    <n v="103949997"/>
+    <s v="G"/>
+    <n v="673989311"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="35"/>
+    <x v="33"/>
+    <x v="1"/>
+    <n v="38291"/>
+    <n v="46869"/>
+    <n v="642183"/>
+    <s v="G"/>
+    <n v="21889467"/>
+    <s v="G"/>
+    <n v="128444766"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="33"/>
+    <x v="2"/>
+    <n v="21424"/>
+    <n v="21436"/>
+    <n v="35877"/>
+    <s v="G"/>
+    <n v="1123819"/>
+    <s v="G"/>
+    <n v="6136527"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="33"/>
+    <x v="3"/>
+    <n v="6645"/>
+    <n v="6722"/>
+    <n v="43838"/>
+    <s v="G"/>
+    <n v="1197217"/>
+    <s v="G"/>
+    <n v="5606367"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="33"/>
+    <x v="4"/>
+    <n v="4232"/>
+    <n v="4408"/>
+    <n v="55999"/>
+    <s v="G"/>
+    <n v="1591142"/>
+    <s v="G"/>
+    <n v="7237931"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="33"/>
+    <x v="5"/>
+    <n v="32301"/>
+    <n v="32566"/>
+    <n v="135714"/>
+    <s v="G"/>
+    <n v="3912178"/>
+    <s v="G"/>
+    <n v="18980825"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="33"/>
+    <x v="6"/>
+    <n v="3607"/>
+    <n v="4634"/>
+    <n v="128364"/>
+    <s v="G"/>
+    <n v="3816527"/>
+    <s v="G"/>
+    <n v="18508478"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="33"/>
+    <x v="7"/>
+    <n v="903"/>
+    <n v="2310"/>
+    <n v="92303"/>
+    <s v="G"/>
+    <n v="3061633"/>
+    <s v="G"/>
+    <n v="14415661"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="33"/>
+    <x v="8"/>
+    <n v="36811"/>
+    <n v="39510"/>
+    <n v="356381"/>
+    <s v="G"/>
+    <n v="10790338"/>
+    <s v="G"/>
+    <n v="51904964"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="33"/>
+    <x v="9"/>
+    <n v="1480"/>
+    <n v="7359"/>
+    <n v="285802"/>
+    <s v="G"/>
+    <n v="11099129"/>
+    <s v="G"/>
+    <n v="76539802"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="36"/>
+    <x v="34"/>
+    <x v="1"/>
+    <n v="446021"/>
+    <n v="519489"/>
+    <n v="7529882"/>
+    <s v="G"/>
+    <n v="429074494"/>
+    <s v="G"/>
+    <n v="2223750754"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="34"/>
+    <x v="2"/>
+    <n v="289959"/>
+    <n v="290188"/>
+    <n v="473742"/>
+    <s v="G"/>
+    <n v="19950530"/>
+    <s v="G"/>
+    <n v="127099279"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="34"/>
+    <x v="3"/>
+    <n v="69657"/>
+    <n v="70228"/>
+    <n v="455052"/>
+    <s v="G"/>
+    <n v="17822759"/>
+    <s v="G"/>
+    <n v="94480283"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="34"/>
+    <x v="4"/>
+    <n v="40561"/>
+    <n v="42013"/>
+    <n v="539997"/>
+    <s v="G"/>
+    <n v="22789096"/>
+    <s v="G"/>
+    <n v="113329199"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="34"/>
+    <x v="5"/>
+    <n v="400177"/>
+    <n v="402429"/>
+    <n v="1468791"/>
+    <s v="G"/>
+    <n v="60562385"/>
+    <s v="G"/>
+    <n v="334908761"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="34"/>
+    <x v="6"/>
+    <n v="34046"/>
+    <n v="41150"/>
+    <n v="1274760"/>
+    <s v="G"/>
+    <n v="59999483"/>
+    <s v="G"/>
+    <n v="291903986"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="34"/>
+    <x v="7"/>
+    <n v="7509"/>
+    <n v="19083"/>
+    <n v="1134756"/>
+    <s v="G"/>
+    <n v="58582676"/>
+    <s v="G"/>
+    <n v="283089534"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="34"/>
+    <x v="8"/>
+    <n v="441732"/>
+    <n v="462662"/>
+    <n v="3878307"/>
+    <s v="G"/>
+    <n v="179144544"/>
+    <s v="G"/>
+    <n v="909902281"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="34"/>
+    <x v="9"/>
+    <n v="4289"/>
+    <n v="56827"/>
+    <n v="3651575"/>
+    <s v="G"/>
+    <n v="249929950"/>
+    <s v="G"/>
+    <n v="1313848473"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="37"/>
+    <x v="35"/>
+    <x v="1"/>
+    <n v="179773"/>
+    <n v="227906"/>
+    <n v="3586552"/>
+    <s v="G"/>
+    <n v="131960671"/>
+    <s v="G"/>
+    <n v="822566115"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="35"/>
+    <x v="2"/>
+    <n v="104738"/>
+    <n v="104856"/>
+    <n v="175521"/>
+    <s v="G"/>
+    <n v="5811611"/>
+    <s v="G"/>
+    <n v="38123994"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="35"/>
+    <x v="3"/>
+    <n v="31677"/>
+    <n v="32033"/>
+    <n v="207966"/>
+    <s v="G"/>
+    <n v="6023344"/>
+    <s v="G"/>
+    <n v="30700463"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="35"/>
+    <x v="4"/>
+    <n v="19369"/>
+    <n v="20380"/>
+    <n v="256723"/>
+    <s v="G"/>
+    <n v="7748343"/>
+    <s v="G"/>
+    <n v="37005361"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="35"/>
+    <x v="5"/>
+    <n v="155784"/>
+    <n v="157269"/>
+    <n v="640210"/>
+    <s v="G"/>
+    <n v="19583298"/>
+    <s v="G"/>
+    <n v="105829818"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="35"/>
+    <x v="6"/>
+    <n v="16750"/>
+    <n v="22105"/>
+    <n v="613816"/>
+    <s v="G"/>
+    <n v="19398648"/>
+    <s v="G"/>
+    <n v="98836650"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="35"/>
+    <x v="7"/>
+    <n v="3782"/>
+    <n v="10780"/>
+    <n v="464294"/>
+    <s v="G"/>
+    <n v="16266952"/>
+    <s v="G"/>
+    <n v="86124154"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="35"/>
+    <x v="8"/>
+    <n v="176316"/>
+    <n v="190154"/>
+    <n v="1718320"/>
+    <s v="G"/>
+    <n v="55248898"/>
+    <s v="G"/>
+    <n v="290790622"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="35"/>
+    <x v="9"/>
+    <n v="3457"/>
+    <n v="37752"/>
+    <n v="1868232"/>
+    <s v="G"/>
+    <n v="76711773"/>
+    <s v="G"/>
+    <n v="531775493"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="38"/>
+    <x v="36"/>
+    <x v="1"/>
+    <n v="17881"/>
+    <n v="21518"/>
+    <n v="292879"/>
+    <s v="G"/>
+    <n v="9111928"/>
+    <s v="G"/>
+    <n v="65208279"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="36"/>
+    <x v="2"/>
+    <n v="10091"/>
+    <n v="10100"/>
+    <n v="16606"/>
+    <s v="G"/>
+    <n v="472382"/>
+    <s v="G"/>
+    <n v="3336492"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="36"/>
+    <x v="3"/>
+    <n v="3049"/>
+    <n v="3094"/>
+    <n v="20102"/>
+    <s v="G"/>
+    <n v="505636"/>
+    <s v="G"/>
+    <n v="3365026"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="36"/>
+    <x v="4"/>
+    <n v="1964"/>
+    <n v="2109"/>
+    <n v="26212"/>
+    <s v="G"/>
+    <n v="712994"/>
+    <s v="G"/>
+    <n v="4654942"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="36"/>
+    <x v="5"/>
+    <n v="15104"/>
+    <n v="15303"/>
+    <n v="62920"/>
+    <s v="G"/>
+    <n v="1691012"/>
+    <s v="G"/>
+    <n v="11356460"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="36"/>
+    <x v="6"/>
+    <n v="1665"/>
+    <n v="2426"/>
+    <n v="60026"/>
+    <s v="G"/>
+    <n v="1730343"/>
+    <s v="G"/>
+    <n v="12097121"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="36"/>
+    <x v="7"/>
+    <n v="437"/>
+    <n v="1254"/>
+    <n v="51378"/>
+    <s v="G"/>
+    <n v="1485143"/>
+    <s v="G"/>
+    <n v="9026798"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="36"/>
+    <x v="8"/>
+    <n v="17206"/>
+    <n v="18983"/>
+    <n v="174324"/>
+    <s v="G"/>
+    <n v="4906498"/>
+    <s v="G"/>
+    <n v="32480379"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="36"/>
+    <x v="9"/>
+    <n v="675"/>
+    <n v="2535"/>
+    <n v="118555"/>
+    <s v="G"/>
+    <n v="4205430"/>
+    <s v="G"/>
+    <n v="32727900"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="39"/>
+    <x v="37"/>
+    <x v="1"/>
+    <n v="205494"/>
+    <n v="270299"/>
+    <n v="4782141"/>
+    <s v="G"/>
+    <n v="180992383"/>
+    <s v="G"/>
+    <n v="1110985795"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="37"/>
+    <x v="2"/>
+    <n v="111691"/>
+    <n v="111842"/>
+    <n v="194908"/>
+    <s v="G"/>
+    <n v="6369259"/>
+    <s v="G"/>
+    <n v="38895422"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="37"/>
+    <x v="3"/>
+    <n v="38707"/>
+    <n v="39165"/>
+    <n v="255940"/>
+    <s v="G"/>
+    <n v="7373945"/>
+    <s v="G"/>
+    <n v="36114125"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="37"/>
+    <x v="4"/>
+    <n v="24501"/>
+    <n v="25926"/>
+    <n v="327500"/>
+    <s v="G"/>
+    <n v="10139214"/>
+    <s v="G"/>
+    <n v="46226677"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="37"/>
+    <x v="5"/>
+    <n v="174899"/>
+    <n v="176933"/>
+    <n v="778348"/>
+    <s v="G"/>
+    <n v="23882418"/>
+    <s v="G"/>
+    <n v="121236224"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="37"/>
+    <x v="6"/>
+    <n v="21803"/>
+    <n v="28860"/>
+    <n v="828408"/>
+    <s v="G"/>
+    <n v="27857652"/>
+    <s v="G"/>
+    <n v="135890566"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="37"/>
+    <x v="7"/>
+    <n v="5002"/>
+    <n v="14821"/>
+    <n v="695630"/>
+    <s v="G"/>
+    <n v="24735414"/>
+    <s v="G"/>
+    <n v="133501780"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="37"/>
+    <x v="8"/>
+    <n v="201704"/>
+    <n v="220614"/>
+    <n v="2302386"/>
+    <s v="G"/>
+    <n v="76475484"/>
+    <s v="G"/>
+    <n v="390628570"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="37"/>
+    <x v="9"/>
+    <n v="3790"/>
+    <n v="49685"/>
+    <n v="2479755"/>
+    <s v="G"/>
+    <n v="104516899"/>
+    <s v="G"/>
+    <n v="720357225"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="40"/>
+    <x v="38"/>
+    <x v="1"/>
+    <n v="73564"/>
+    <n v="91235"/>
+    <n v="1307858"/>
+    <s v="G"/>
+    <n v="44607658"/>
+    <s v="G"/>
+    <n v="312065477"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="38"/>
+    <x v="2"/>
+    <n v="42910"/>
+    <n v="42978"/>
+    <n v="73102"/>
+    <s v="G"/>
+    <n v="2262547"/>
+    <s v="G"/>
+    <n v="14514684"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="38"/>
+    <x v="3"/>
+    <n v="13020"/>
+    <n v="13171"/>
+    <n v="85612"/>
+    <s v="G"/>
+    <n v="2329359"/>
+    <s v="G"/>
+    <n v="12537674"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="38"/>
+    <x v="4"/>
+    <n v="7525"/>
+    <n v="7900"/>
+    <n v="100335"/>
+    <s v="G"/>
+    <n v="2819393"/>
+    <s v="G"/>
+    <n v="15930031"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="38"/>
+    <x v="5"/>
+    <n v="63455"/>
+    <n v="64049"/>
+    <n v="259049"/>
+    <s v="G"/>
+    <n v="7411299"/>
+    <s v="G"/>
+    <n v="42982389"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="38"/>
+    <x v="6"/>
+    <n v="6585"/>
+    <n v="8808"/>
+    <n v="245614"/>
+    <s v="G"/>
+    <n v="7378136"/>
+    <s v="G"/>
+    <n v="52849183"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="38"/>
+    <x v="7"/>
+    <n v="1583"/>
+    <n v="4486"/>
+    <n v="193625"/>
+    <s v="G"/>
+    <n v="6395075"/>
+    <s v="G"/>
+    <n v="40886702"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="38"/>
+    <x v="8"/>
+    <n v="71623"/>
+    <n v="77343"/>
+    <n v="698288"/>
+    <s v="G"/>
+    <n v="21184510"/>
+    <s v="G"/>
+    <n v="136718274"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="38"/>
+    <x v="9"/>
+    <n v="1941"/>
+    <n v="13892"/>
+    <n v="609570"/>
+    <s v="G"/>
+    <n v="23423148"/>
+    <s v="G"/>
+    <n v="175347203"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="41"/>
+    <x v="39"/>
+    <x v="1"/>
+    <n v="94264"/>
+    <n v="113389"/>
+    <n v="1477553"/>
+    <s v="G"/>
+    <n v="56033374"/>
+    <s v="G"/>
+    <n v="324016551"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="39"/>
+    <x v="2"/>
+    <n v="55820"/>
+    <n v="55867"/>
+    <n v="91378"/>
+    <s v="G"/>
+    <n v="2960986"/>
+    <s v="G"/>
+    <n v="18690532"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="39"/>
+    <x v="3"/>
+    <n v="16503"/>
+    <n v="16646"/>
+    <n v="108185"/>
+    <s v="G"/>
+    <n v="3014390"/>
+    <s v="G"/>
+    <n v="14713976"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="39"/>
+    <x v="4"/>
+    <n v="10067"/>
+    <n v="10580"/>
+    <n v="134152"/>
+    <s v="G"/>
+    <n v="3956431"/>
+    <s v="G"/>
+    <n v="18551124"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="39"/>
+    <x v="5"/>
+    <n v="82390"/>
+    <n v="83093"/>
+    <n v="333715"/>
+    <s v="G"/>
+    <n v="9931807"/>
+    <s v="G"/>
+    <n v="51955632"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="39"/>
+    <x v="6"/>
+    <n v="7945"/>
+    <n v="10671"/>
+    <n v="289221"/>
+    <s v="G"/>
+    <n v="9930871"/>
+    <s v="G"/>
+    <n v="49552952"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="39"/>
+    <x v="7"/>
+    <n v="1867"/>
+    <n v="5762"/>
+    <n v="217212"/>
+    <s v="G"/>
+    <n v="8031006"/>
+    <s v="G"/>
+    <n v="47758687"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="39"/>
+    <x v="8"/>
+    <n v="92202"/>
+    <n v="99526"/>
+    <n v="840148"/>
+    <s v="G"/>
+    <n v="27893684"/>
+    <s v="G"/>
+    <n v="149267271"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="39"/>
+    <x v="9"/>
+    <n v="2062"/>
+    <n v="13863"/>
+    <n v="637405"/>
+    <s v="G"/>
+    <n v="28139690"/>
+    <s v="G"/>
+    <n v="174749280"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="42"/>
+    <x v="40"/>
+    <x v="1"/>
+    <n v="240573"/>
+    <n v="305345"/>
+    <n v="5195818"/>
+    <s v="G"/>
+    <n v="208045992"/>
+    <s v="G"/>
+    <n v="1171647871"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="40"/>
+    <x v="2"/>
+    <n v="135605"/>
+    <n v="135760"/>
+    <n v="238539"/>
+    <s v="G"/>
+    <n v="8010452"/>
+    <s v="G"/>
+    <n v="47578894"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="40"/>
+    <x v="3"/>
+    <n v="44371"/>
+    <n v="44865"/>
+    <n v="291720"/>
+    <s v="G"/>
+    <n v="8813546"/>
+    <s v="G"/>
+    <n v="44262632"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="40"/>
+    <x v="4"/>
+    <n v="27112"/>
+    <n v="28509"/>
+    <n v="361852"/>
+    <s v="G"/>
+    <n v="11965523"/>
+    <s v="G"/>
+    <n v="53448347"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="40"/>
+    <x v="5"/>
+    <n v="207088"/>
+    <n v="209134"/>
+    <n v="892111"/>
+    <s v="G"/>
+    <n v="28789521"/>
+    <s v="G"/>
+    <n v="145289873"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="40"/>
+    <x v="6"/>
+    <n v="24080"/>
+    <n v="31070"/>
+    <n v="907388"/>
+    <s v="G"/>
+    <n v="32999187"/>
+    <s v="G"/>
+    <n v="158041239"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="40"/>
+    <x v="7"/>
+    <n v="5462"/>
+    <n v="15514"/>
+    <n v="760768"/>
+    <s v="G"/>
+    <n v="28705795"/>
+    <s v="G"/>
+    <n v="146981024"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="40"/>
+    <x v="8"/>
+    <n v="236630"/>
+    <n v="255718"/>
+    <n v="2560267"/>
+    <s v="G"/>
+    <n v="90494503"/>
+    <s v="G"/>
+    <n v="450312136"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="40"/>
+    <x v="9"/>
+    <n v="3943"/>
+    <n v="49627"/>
+    <n v="2635551"/>
+    <s v="G"/>
+    <n v="117551489"/>
+    <s v="G"/>
+    <n v="721335735"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="44"/>
+    <x v="41"/>
+    <x v="1"/>
+    <n v="26417"/>
+    <n v="30359"/>
+    <n v="441353"/>
+    <s v="G"/>
+    <n v="16976081"/>
+    <s v="G"/>
+    <n v="83105152"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="2"/>
+    <n v="15354"/>
+    <n v="15362"/>
+    <n v="25638"/>
+    <s v="G"/>
+    <n v="945376"/>
+    <s v="G"/>
+    <n v="5483837"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="3"/>
+    <n v="4442"/>
+    <n v="4486"/>
+    <n v="29056"/>
+    <s v="G"/>
+    <n v="936622"/>
+    <s v="G"/>
+    <n v="4517441"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="4"/>
+    <n v="2686"/>
+    <n v="2766"/>
+    <n v="35878"/>
+    <s v="G"/>
+    <n v="1187748"/>
+    <s v="G"/>
+    <n v="5126622"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="5"/>
+    <n v="22482"/>
+    <n v="22614"/>
+    <n v="90572"/>
+    <s v="G"/>
+    <n v="3069746"/>
+    <s v="G"/>
+    <n v="15127900"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="6"/>
+    <n v="2353"/>
+    <n v="2732"/>
+    <n v="85742"/>
+    <s v="G"/>
+    <n v="3080189"/>
+    <s v="G"/>
+    <n v="13955785"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="7"/>
+    <n v="623"/>
+    <n v="1456"/>
+    <n v="70602"/>
+    <s v="G"/>
+    <n v="2588265"/>
+    <s v="G"/>
+    <n v="10422077"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="8"/>
+    <n v="25458"/>
+    <n v="26802"/>
+    <n v="246916"/>
+    <s v="G"/>
+    <n v="8738200"/>
+    <s v="G"/>
+    <n v="39505762"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="9"/>
+    <n v="959"/>
+    <n v="3557"/>
+    <n v="194437"/>
+    <s v="G"/>
+    <n v="8237881"/>
+    <s v="H"/>
+    <n v="43599390"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="45"/>
+    <x v="41"/>
+    <x v="1"/>
+    <n v="85056"/>
+    <n v="107893"/>
+    <n v="1648146"/>
+    <s v="G"/>
+    <n v="53866256"/>
+    <s v="G"/>
+    <n v="332046117"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="2"/>
+    <n v="47956"/>
+    <n v="48006"/>
+    <n v="83242"/>
+    <s v="G"/>
+    <n v="2549548"/>
+    <s v="G"/>
+    <n v="16513209"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="3"/>
+    <n v="15507"/>
+    <n v="15707"/>
+    <n v="101999"/>
+    <s v="G"/>
+    <n v="2731914"/>
+    <s v="G"/>
+    <n v="13886727"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="4"/>
+    <n v="9468"/>
+    <n v="9992"/>
+    <n v="125725"/>
+    <s v="G"/>
+    <n v="3529795"/>
+    <s v="G"/>
+    <n v="16692285"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="5"/>
+    <n v="72931"/>
+    <n v="73705"/>
+    <n v="310966"/>
+    <s v="G"/>
+    <n v="8811257"/>
+    <s v="G"/>
+    <n v="47092221"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="6"/>
+    <n v="7897"/>
+    <n v="10381"/>
+    <n v="287024"/>
+    <s v="G"/>
+    <n v="8564257"/>
+    <s v="G"/>
+    <n v="42956805"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="7"/>
+    <n v="1916"/>
+    <n v="4952"/>
+    <n v="216908"/>
+    <s v="G"/>
+    <n v="6965178"/>
+    <s v="G"/>
+    <n v="36243724"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="8"/>
+    <n v="82744"/>
+    <n v="89038"/>
+    <n v="814898"/>
+    <s v="G"/>
+    <n v="24340692"/>
+    <s v="G"/>
+    <n v="126292750"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="41"/>
+    <x v="9"/>
+    <n v="2312"/>
+    <n v="18855"/>
+    <n v="833248"/>
+    <s v="G"/>
+    <n v="29525564"/>
+    <s v="G"/>
+    <n v="205753367"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="46"/>
+    <x v="42"/>
+    <x v="1"/>
+    <n v="22043"/>
+    <n v="25869"/>
+    <n v="330169"/>
+    <s v="G"/>
+    <n v="10144637"/>
+    <s v="G"/>
+    <n v="83127202"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="42"/>
+    <x v="2"/>
+    <n v="12735"/>
+    <n v="12748"/>
+    <n v="21006"/>
+    <s v="G"/>
+    <n v="576848"/>
+    <s v="G"/>
+    <n v="4162335"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="42"/>
+    <x v="3"/>
+    <n v="3812"/>
+    <n v="3849"/>
+    <n v="25054"/>
+    <s v="G"/>
+    <n v="594037"/>
+    <s v="G"/>
+    <n v="3663519"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="42"/>
+    <x v="4"/>
+    <n v="2397"/>
+    <n v="2540"/>
+    <n v="31460"/>
+    <s v="G"/>
+    <n v="792131"/>
+    <s v="G"/>
+    <n v="4884346"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="42"/>
+    <x v="5"/>
+    <n v="18944"/>
+    <n v="19137"/>
+    <n v="77520"/>
+    <s v="G"/>
+    <n v="1963016"/>
+    <s v="G"/>
+    <n v="12710200"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="42"/>
+    <x v="6"/>
+    <n v="1857"/>
+    <n v="2597"/>
+    <n v="67180"/>
+    <s v="G"/>
+    <n v="1899336"/>
+    <s v="G"/>
+    <n v="12847092"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="42"/>
+    <x v="7"/>
+    <n v="527"/>
+    <n v="1611"/>
+    <n v="59585"/>
+    <s v="G"/>
+    <n v="1784854"/>
+    <s v="G"/>
+    <n v="12223418"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="42"/>
+    <x v="8"/>
+    <n v="21328"/>
+    <n v="23345"/>
+    <n v="204285"/>
+    <s v="G"/>
+    <n v="5647206"/>
+    <s v="G"/>
+    <n v="37780710"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="42"/>
+    <x v="9"/>
+    <n v="715"/>
+    <n v="2524"/>
+    <n v="125884"/>
+    <s v="H"/>
+    <n v="4497431"/>
+    <s v="H"/>
+    <n v="45346492"/>
+    <s v="H"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="47"/>
+    <x v="43"/>
+    <x v="1"/>
+    <n v="104746"/>
+    <n v="137855"/>
+    <n v="2475512"/>
+    <s v="G"/>
+    <n v="90085455"/>
+    <s v="G"/>
+    <n v="546283425"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="43"/>
+    <x v="2"/>
+    <n v="56746"/>
+    <n v="56827"/>
+    <n v="101134"/>
+    <s v="G"/>
+    <n v="3404598"/>
+    <s v="G"/>
+    <n v="21856512"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="43"/>
+    <x v="3"/>
+    <n v="19370"/>
+    <n v="19612"/>
+    <n v="127556"/>
+    <s v="G"/>
+    <n v="3730827"/>
+    <s v="G"/>
+    <n v="19887031"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="43"/>
+    <x v="4"/>
+    <n v="12052"/>
+    <n v="12718"/>
+    <n v="160538"/>
+    <s v="G"/>
+    <n v="5041642"/>
+    <s v="G"/>
+    <n v="25101156"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="43"/>
+    <x v="5"/>
+    <n v="88168"/>
+    <n v="89157"/>
+    <n v="389228"/>
+    <s v="G"/>
+    <n v="12177067"/>
+    <s v="G"/>
+    <n v="66844699"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="43"/>
+    <x v="6"/>
+    <n v="10802"/>
+    <n v="14161"/>
+    <n v="398547"/>
+    <s v="G"/>
+    <n v="14001341"/>
+    <s v="G"/>
+    <n v="68676857"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="43"/>
+    <x v="7"/>
+    <n v="2739"/>
+    <n v="7402"/>
+    <n v="325577"/>
+    <s v="G"/>
+    <n v="11673088"/>
+    <s v="G"/>
+    <n v="61376813"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="43"/>
+    <x v="8"/>
+    <n v="101709"/>
+    <n v="110720"/>
+    <n v="1113352"/>
+    <s v="G"/>
+    <n v="37851496"/>
+    <s v="G"/>
+    <n v="196898369"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="43"/>
+    <x v="9"/>
+    <n v="3037"/>
+    <n v="27135"/>
+    <n v="1362160"/>
+    <s v="G"/>
+    <n v="52233959"/>
+    <s v="G"/>
+    <n v="349385056"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="48"/>
+    <x v="44"/>
+    <x v="1"/>
+    <n v="397684"/>
+    <n v="521408"/>
+    <n v="9041030"/>
+    <s v="G"/>
+    <n v="373037029"/>
+    <s v="G"/>
+    <n v="2586201192"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="44"/>
+    <x v="2"/>
+    <n v="229814"/>
+    <n v="230224"/>
+    <n v="391980"/>
+    <s v="G"/>
+    <n v="16557616"/>
+    <s v="G"/>
+    <n v="105823627"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="44"/>
+    <x v="3"/>
+    <n v="70929"/>
+    <n v="71871"/>
+    <n v="465043"/>
+    <s v="G"/>
+    <n v="15028864"/>
+    <s v="G"/>
+    <n v="84870448"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="44"/>
+    <x v="4"/>
+    <n v="43941"/>
+    <n v="46472"/>
+    <n v="587326"/>
+    <s v="G"/>
+    <n v="19771491"/>
+    <s v="G"/>
+    <n v="102186374"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="44"/>
+    <x v="5"/>
+    <n v="344684"/>
+    <n v="348567"/>
+    <n v="1444349"/>
+    <s v="G"/>
+    <n v="51357971"/>
+    <s v="G"/>
+    <n v="292880449"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="44"/>
+    <x v="6"/>
+    <n v="38792"/>
+    <n v="51039"/>
+    <n v="1474118"/>
+    <s v="G"/>
+    <n v="51832546"/>
+    <s v="G"/>
+    <n v="275407139"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="44"/>
+    <x v="7"/>
+    <n v="8869"/>
+    <n v="25036"/>
+    <n v="1230452"/>
+    <s v="G"/>
+    <n v="48828299"/>
+    <s v="G"/>
+    <n v="305767604"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="44"/>
+    <x v="8"/>
+    <n v="392345"/>
+    <n v="424642"/>
+    <n v="4148919"/>
+    <s v="G"/>
+    <n v="152018816"/>
+    <s v="G"/>
+    <n v="874055192"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="44"/>
+    <x v="9"/>
+    <n v="5339"/>
+    <n v="96766"/>
+    <n v="4892111"/>
+    <s v="G"/>
+    <n v="221018213"/>
+    <s v="G"/>
+    <n v="1712146000"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="49"/>
+    <x v="45"/>
+    <x v="1"/>
+    <n v="60989"/>
+    <n v="71880"/>
+    <n v="1102821"/>
+    <s v="G"/>
+    <n v="38730072"/>
+    <s v="G"/>
+    <n v="229772813"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="45"/>
+    <x v="2"/>
+    <n v="36873"/>
+    <n v="36892"/>
+    <n v="54077"/>
+    <s v="H"/>
+    <n v="1996757"/>
+    <s v="G"/>
+    <n v="11937326"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="45"/>
+    <x v="3"/>
+    <n v="9525"/>
+    <n v="9590"/>
+    <n v="62745"/>
+    <s v="G"/>
+    <n v="1728446"/>
+    <s v="G"/>
+    <n v="9343953"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="45"/>
+    <x v="4"/>
+    <n v="6212"/>
+    <n v="6462"/>
+    <n v="82443"/>
+    <s v="G"/>
+    <n v="2341576"/>
+    <s v="G"/>
+    <n v="12183799"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="45"/>
+    <x v="5"/>
+    <n v="52610"/>
+    <n v="52944"/>
+    <n v="199265"/>
+    <s v="G"/>
+    <n v="6066779"/>
+    <s v="G"/>
+    <n v="33465078"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="45"/>
+    <x v="6"/>
+    <n v="5288"/>
+    <n v="6687"/>
+    <n v="196427"/>
+    <s v="G"/>
+    <n v="6334317"/>
+    <s v="G"/>
+    <n v="30736357"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="45"/>
+    <x v="7"/>
+    <n v="1268"/>
+    <n v="2932"/>
+    <n v="143919"/>
+    <s v="G"/>
+    <n v="5300428"/>
+    <s v="G"/>
+    <n v="27683571"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="45"/>
+    <x v="8"/>
+    <n v="59166"/>
+    <n v="62563"/>
+    <n v="539611"/>
+    <s v="G"/>
+    <n v="17701524"/>
+    <s v="G"/>
+    <n v="91885006"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="45"/>
+    <x v="9"/>
+    <n v="1823"/>
+    <n v="9317"/>
+    <n v="563210"/>
+    <s v="G"/>
+    <n v="21028548"/>
+    <s v="G"/>
+    <n v="137887807"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="50"/>
+    <x v="46"/>
+    <x v="1"/>
+    <n v="19503"/>
+    <n v="22341"/>
+    <n v="268086"/>
+    <s v="G"/>
+    <n v="8821572"/>
+    <s v="G"/>
+    <n v="45549949"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="46"/>
+    <x v="2"/>
+    <n v="11570"/>
+    <n v="11575"/>
+    <n v="19502"/>
+    <s v="G"/>
+    <n v="651947"/>
+    <s v="G"/>
+    <n v="3488345"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="46"/>
+    <x v="3"/>
+    <n v="3340"/>
+    <n v="3371"/>
+    <n v="21837"/>
+    <s v="G"/>
+    <n v="620981"/>
+    <s v="G"/>
+    <n v="2758857"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="46"/>
+    <x v="4"/>
+    <n v="2014"/>
+    <n v="2104"/>
+    <n v="26499"/>
+    <s v="G"/>
+    <n v="774347"/>
+    <s v="G"/>
+    <n v="3749306"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="46"/>
+    <x v="5"/>
+    <n v="16924"/>
+    <n v="17050"/>
+    <n v="67838"/>
+    <s v="G"/>
+    <n v="2047275"/>
+    <s v="G"/>
+    <n v="9996508"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="46"/>
+    <x v="6"/>
+    <n v="1566"/>
+    <n v="2092"/>
+    <n v="54572"/>
+    <s v="G"/>
+    <n v="1784965"/>
+    <s v="G"/>
+    <n v="8440819"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="46"/>
+    <x v="7"/>
+    <n v="365"/>
+    <n v="1134"/>
+    <n v="42269"/>
+    <s v="G"/>
+    <n v="1471256"/>
+    <s v="G"/>
+    <n v="7365957"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="46"/>
+    <x v="8"/>
+    <n v="18855"/>
+    <n v="20276"/>
+    <n v="164679"/>
+    <s v="G"/>
+    <n v="5303496"/>
+    <s v="G"/>
+    <n v="25803284"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="46"/>
+    <x v="9"/>
+    <n v="648"/>
+    <n v="2065"/>
+    <n v="103407"/>
+    <s v="G"/>
+    <n v="3518076"/>
+    <s v="G"/>
+    <n v="19746665"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="51"/>
+    <x v="47"/>
+    <x v="1"/>
+    <n v="157501"/>
+    <n v="200503"/>
+    <n v="3196914"/>
+    <s v="G"/>
+    <n v="136311818"/>
+    <s v="G"/>
+    <n v="740180426"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="47"/>
+    <x v="2"/>
+    <n v="91681"/>
+    <n v="91773"/>
+    <n v="155066"/>
+    <s v="G"/>
+    <n v="5787940"/>
+    <s v="G"/>
+    <n v="30825458"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="47"/>
+    <x v="3"/>
+    <n v="27433"/>
+    <n v="27667"/>
+    <n v="180503"/>
+    <s v="G"/>
+    <n v="5827037"/>
+    <s v="G"/>
+    <n v="24793471"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="47"/>
+    <x v="4"/>
+    <n v="16983"/>
+    <n v="17800"/>
+    <n v="225592"/>
+    <s v="G"/>
+    <n v="7857544"/>
+    <s v="G"/>
+    <n v="31620995"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="47"/>
+    <x v="5"/>
+    <n v="136097"/>
+    <n v="137240"/>
+    <n v="561161"/>
+    <s v="G"/>
+    <n v="19472521"/>
+    <s v="G"/>
+    <n v="87239924"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="47"/>
+    <x v="6"/>
+    <n v="14489"/>
+    <n v="18559"/>
+    <n v="530506"/>
+    <s v="G"/>
+    <n v="20435790"/>
+    <s v="G"/>
+    <n v="84391174"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="47"/>
+    <x v="7"/>
+    <n v="3654"/>
+    <n v="9727"/>
+    <n v="452834"/>
+    <s v="G"/>
+    <n v="19670060"/>
+    <s v="G"/>
+    <n v="86493978"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="47"/>
+    <x v="8"/>
+    <n v="154240"/>
+    <n v="165526"/>
+    <n v="1544501"/>
+    <s v="G"/>
+    <n v="59578371"/>
+    <s v="G"/>
+    <n v="258125076"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="47"/>
+    <x v="9"/>
+    <n v="3261"/>
+    <n v="34977"/>
+    <n v="1652413"/>
+    <s v="G"/>
+    <n v="76733447"/>
+    <s v="G"/>
+    <n v="482055350"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="53"/>
+    <x v="48"/>
+    <x v="1"/>
+    <n v="153567"/>
+    <n v="184542"/>
+    <n v="2501684"/>
+    <s v="G"/>
+    <n v="112307548"/>
+    <s v="G"/>
+    <n v="616830198"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="48"/>
+    <x v="2"/>
+    <n v="92805"/>
+    <n v="92981"/>
+    <n v="149672"/>
+    <s v="G"/>
+    <n v="5416609"/>
+    <s v="G"/>
+    <n v="32000069"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="48"/>
+    <x v="3"/>
+    <n v="26216"/>
+    <n v="26446"/>
+    <n v="172252"/>
+    <s v="G"/>
+    <n v="5429946"/>
+    <s v="G"/>
+    <n v="28482129"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="48"/>
+    <x v="4"/>
+    <n v="15968"/>
+    <n v="16801"/>
+    <n v="211611"/>
+    <s v="G"/>
+    <n v="7094775"/>
+    <s v="G"/>
+    <n v="31776353"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="48"/>
+    <x v="5"/>
+    <n v="134989"/>
+    <n v="136228"/>
+    <n v="533535"/>
+    <s v="G"/>
+    <n v="17941330"/>
+    <s v="G"/>
+    <n v="92258551"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="48"/>
+    <x v="6"/>
+    <n v="12783"/>
+    <n v="16672"/>
+    <n v="465683"/>
+    <s v="G"/>
+    <n v="17766709"/>
+    <s v="G"/>
+    <n v="86321297"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="48"/>
+    <x v="7"/>
+    <n v="3058"/>
+    <n v="8247"/>
+    <n v="366158"/>
+    <s v="G"/>
+    <n v="15752162"/>
+    <s v="G"/>
+    <n v="80143746"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="48"/>
+    <x v="8"/>
+    <n v="150830"/>
+    <n v="161147"/>
+    <n v="1365376"/>
+    <s v="G"/>
+    <n v="51460201"/>
+    <s v="G"/>
+    <n v="258723594"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="48"/>
+    <x v="9"/>
+    <n v="2737"/>
+    <n v="23395"/>
+    <n v="1136308"/>
+    <s v="G"/>
+    <n v="60847347"/>
+    <s v="G"/>
+    <n v="358106604"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="54"/>
+    <x v="49"/>
+    <x v="1"/>
+    <n v="31923"/>
+    <n v="40492"/>
+    <n v="581023"/>
+    <s v="G"/>
+    <n v="18058858"/>
+    <s v="G"/>
+    <n v="114644029"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="49"/>
+    <x v="2"/>
+    <n v="17280"/>
+    <n v="17295"/>
+    <n v="31771"/>
+    <s v="G"/>
+    <n v="773283"/>
+    <s v="G"/>
+    <n v="4783475"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="49"/>
+    <x v="3"/>
+    <n v="6245"/>
+    <n v="6311"/>
+    <n v="40819"/>
+    <s v="G"/>
+    <n v="917119"/>
+    <s v="G"/>
+    <n v="4547325"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="49"/>
+    <x v="4"/>
+    <n v="3604"/>
+    <n v="3809"/>
+    <n v="47646"/>
+    <s v="G"/>
+    <n v="1232798"/>
+    <s v="G"/>
+    <n v="5876473"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="49"/>
+    <x v="5"/>
+    <n v="27129"/>
+    <n v="27415"/>
+    <n v="120236"/>
+    <s v="G"/>
+    <n v="2923200"/>
+    <s v="G"/>
+    <n v="15207273"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="49"/>
+    <x v="6"/>
+    <n v="2887"/>
+    <n v="4102"/>
+    <n v="105577"/>
+    <s v="G"/>
+    <n v="2969541"/>
+    <s v="G"/>
+    <n v="15915941"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="49"/>
+    <x v="7"/>
+    <n v="753"/>
+    <n v="2138"/>
+    <n v="82032"/>
+    <s v="G"/>
+    <n v="2452215"/>
+    <s v="G"/>
+    <n v="14597215"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="49"/>
+    <x v="8"/>
+    <n v="30769"/>
+    <n v="33655"/>
+    <n v="307845"/>
+    <s v="G"/>
+    <n v="8344956"/>
+    <s v="G"/>
+    <n v="45720429"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="49"/>
+    <x v="9"/>
+    <n v="1154"/>
+    <n v="6837"/>
+    <n v="273178"/>
+    <s v="G"/>
+    <n v="9713902"/>
+    <s v="G"/>
+    <n v="68923600"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="55"/>
+    <x v="50"/>
+    <x v="1"/>
+    <n v="117426"/>
+    <n v="146286"/>
+    <n v="2484051"/>
+    <s v="G"/>
+    <n v="92637609"/>
+    <s v="G"/>
+    <n v="560985540"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="50"/>
+    <x v="2"/>
+    <n v="64790"/>
+    <n v="64891"/>
+    <n v="108793"/>
+    <s v="G"/>
+    <n v="3619881"/>
+    <s v="G"/>
+    <n v="20959731"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="50"/>
+    <x v="3"/>
+    <n v="21037"/>
+    <n v="21272"/>
+    <n v="138740"/>
+    <s v="G"/>
+    <n v="3927840"/>
+    <s v="G"/>
+    <n v="19017293"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="50"/>
+    <x v="4"/>
+    <n v="14024"/>
+    <n v="14764"/>
+    <n v="187862"/>
+    <s v="G"/>
+    <n v="5409604"/>
+    <s v="G"/>
+    <n v="25381424"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="50"/>
+    <x v="5"/>
+    <n v="99851"/>
+    <n v="100927"/>
+    <n v="435395"/>
+    <s v="G"/>
+    <n v="12957325"/>
+    <s v="G"/>
+    <n v="65358448"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="50"/>
+    <x v="6"/>
+    <n v="12425"/>
+    <n v="16688"/>
+    <n v="469803"/>
+    <s v="G"/>
+    <n v="15207870"/>
+    <s v="G"/>
+    <n v="75559772"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="50"/>
+    <x v="7"/>
+    <n v="2742"/>
+    <n v="8033"/>
+    <n v="392796"/>
+    <s v="G"/>
+    <n v="14212417"/>
+    <s v="G"/>
+    <n v="76337684"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="50"/>
+    <x v="8"/>
+    <n v="115018"/>
+    <n v="125648"/>
+    <n v="1297994"/>
+    <s v="G"/>
+    <n v="42377612"/>
+    <s v="G"/>
+    <n v="217255904"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="50"/>
+    <x v="9"/>
+    <n v="2408"/>
+    <n v="20638"/>
+    <n v="1186057"/>
+    <s v="G"/>
+    <n v="50259997"/>
+    <s v="G"/>
+    <n v="343729636"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="56"/>
+    <x v="51"/>
+    <x v="1"/>
+    <n v="18114"/>
+    <n v="20765"/>
+    <n v="215615"/>
+    <s v="G"/>
+    <n v="8162130"/>
+    <s v="G"/>
+    <n v="66009186"/>
+    <s v="G"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="208">
   <r>
@@ -55825,6 +62456,450 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E10EFB9B-8F2A-48E4-B63B-8369711D54DE}" name="PivotTable1" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D109" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="53">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="1"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item x="9"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" maxSubtotal="1">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="max"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="105">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="max">
+      <x v="1048832"/>
+      <x/>
+    </i>
+    <i t="max" r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of NUMBER OF FIRMS" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40A7C4DA-0A38-4DB5-A92A-6AE73E6A8F17}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C56" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
@@ -65214,7 +72289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4069B4F-11CF-45C6-A54D-5D6640EFFE6A}">
   <dimension ref="A3:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -66455,6 +73530,1519 @@
       </c>
       <c r="C57">
         <v>100400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C496FD17-8A1F-4EE3-A0BD-40D6F04512FD}">
+  <dimension ref="A3:D109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="24" width="3.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="173" width="4.94140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="174" max="377" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="378" max="453" width="7.0546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="454" max="458" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="459" max="459" width="6.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="460" max="460" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="461" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="4">
+        <v>81565</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2301</v>
+      </c>
+      <c r="D5" s="4">
+        <v>83866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="4">
+        <v>81565</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2301</v>
+      </c>
+      <c r="D6" s="4">
+        <v>83866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4">
+        <v>16786</v>
+      </c>
+      <c r="C7" s="4">
+        <v>532</v>
+      </c>
+      <c r="D7" s="4">
+        <v>17318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4">
+        <v>16786</v>
+      </c>
+      <c r="C8" s="4">
+        <v>532</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="4">
+        <v>113298</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2974</v>
+      </c>
+      <c r="D9" s="4">
+        <v>116272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="4">
+        <v>113298</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2974</v>
+      </c>
+      <c r="D10" s="4">
+        <v>116272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4">
+        <v>53697</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1631</v>
+      </c>
+      <c r="D11" s="4">
+        <v>55328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="4">
+        <v>53697</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1631</v>
+      </c>
+      <c r="D12" s="4">
+        <v>55328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <v>730789</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5811</v>
+      </c>
+      <c r="D13" s="4">
+        <v>736600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="4">
+        <v>730789</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5811</v>
+      </c>
+      <c r="D14" s="4">
+        <v>736600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4">
+        <v>131894</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3012</v>
+      </c>
+      <c r="D15" s="4">
+        <v>134906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="4">
+        <v>131894</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3012</v>
+      </c>
+      <c r="D16" s="4">
+        <v>134906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="4">
+        <v>77128</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2041</v>
+      </c>
+      <c r="D17" s="4">
+        <v>79169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="4">
+        <v>77128</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2041</v>
+      </c>
+      <c r="D18" s="4">
+        <v>79169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4">
+        <v>20743</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1461</v>
+      </c>
+      <c r="D19" s="4">
+        <v>22204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="4">
+        <v>20743</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1461</v>
+      </c>
+      <c r="D20" s="4">
+        <v>22204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="4">
+        <v>16925</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1200</v>
+      </c>
+      <c r="D21" s="4">
+        <v>18125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="4">
+        <v>16925</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1200</v>
+      </c>
+      <c r="D22" s="4">
+        <v>18125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4">
+        <v>432275</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4438</v>
+      </c>
+      <c r="D23" s="4">
+        <v>436713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="4">
+        <v>432275</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4438</v>
+      </c>
+      <c r="D24" s="4">
+        <v>436713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="4">
+        <v>184687</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3968</v>
+      </c>
+      <c r="D25" s="4">
+        <v>188655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4">
+        <v>184687</v>
+      </c>
+      <c r="C26" s="4">
+        <v>3968</v>
+      </c>
+      <c r="D26" s="4">
+        <v>188655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="4">
+        <v>26889</v>
+      </c>
+      <c r="C27" s="4">
+        <v>855</v>
+      </c>
+      <c r="D27" s="4">
+        <v>27744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="4">
+        <v>26889</v>
+      </c>
+      <c r="C28" s="4">
+        <v>855</v>
+      </c>
+      <c r="D28" s="4">
+        <v>27744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4">
+        <v>40749</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1105</v>
+      </c>
+      <c r="D29" s="4">
+        <v>41854</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="4">
+        <v>40749</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1105</v>
+      </c>
+      <c r="D30" s="4">
+        <v>41854</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="4">
+        <v>264289</v>
+      </c>
+      <c r="C31" s="4">
+        <v>4419</v>
+      </c>
+      <c r="D31" s="4">
+        <v>268708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="4">
+        <v>264289</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4419</v>
+      </c>
+      <c r="D32" s="4">
+        <v>268708</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="4">
+        <v>118218</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2934</v>
+      </c>
+      <c r="D33" s="4">
+        <v>121152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="4">
+        <v>118218</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2934</v>
+      </c>
+      <c r="D34" s="4">
+        <v>121152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="4">
+        <v>65859</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1736</v>
+      </c>
+      <c r="D35" s="4">
+        <v>67595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="4">
+        <v>65859</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1736</v>
+      </c>
+      <c r="D36" s="4">
+        <v>67595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>62092</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1945</v>
+      </c>
+      <c r="D37" s="4">
+        <v>64037</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="4">
+        <v>62092</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1945</v>
+      </c>
+      <c r="D38" s="4">
+        <v>64037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="4">
+        <v>72848</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2286</v>
+      </c>
+      <c r="D39" s="4">
+        <v>75134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="4">
+        <v>72848</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2286</v>
+      </c>
+      <c r="D40" s="4">
+        <v>75134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="4">
+        <v>83159</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2095</v>
+      </c>
+      <c r="D41" s="4">
+        <v>85254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="4">
+        <v>83159</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2095</v>
+      </c>
+      <c r="D42" s="4">
+        <v>85254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="4">
+        <v>35776</v>
+      </c>
+      <c r="C43" s="4">
+        <v>938</v>
+      </c>
+      <c r="D43" s="4">
+        <v>36714</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="4">
+        <v>35776</v>
+      </c>
+      <c r="C44" s="4">
+        <v>938</v>
+      </c>
+      <c r="D44" s="4">
+        <v>36714</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="4">
+        <v>115301</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2659</v>
+      </c>
+      <c r="D45" s="4">
+        <v>117960</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="4">
+        <v>115301</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2659</v>
+      </c>
+      <c r="D46" s="4">
+        <v>117960</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="4">
+        <v>144767</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2984</v>
+      </c>
+      <c r="D47" s="4">
+        <v>147751</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="4">
+        <v>144767</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2984</v>
+      </c>
+      <c r="D48" s="4">
+        <v>147751</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="4">
+        <v>188485</v>
+      </c>
+      <c r="C49" s="4">
+        <v>3065</v>
+      </c>
+      <c r="D49" s="4">
+        <v>191550</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="4">
+        <v>188485</v>
+      </c>
+      <c r="C50" s="4">
+        <v>3065</v>
+      </c>
+      <c r="D50" s="4">
+        <v>191550</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="4">
+        <v>123736</v>
+      </c>
+      <c r="C51" s="4">
+        <v>2539</v>
+      </c>
+      <c r="D51" s="4">
+        <v>126275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="4">
+        <v>123736</v>
+      </c>
+      <c r="C52" s="4">
+        <v>2539</v>
+      </c>
+      <c r="D52" s="4">
+        <v>126275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="4">
+        <v>48675</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1571</v>
+      </c>
+      <c r="D53" s="4">
+        <v>50246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="4">
+        <v>48675</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1571</v>
+      </c>
+      <c r="D54" s="4">
+        <v>50246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="4">
+        <v>122573</v>
+      </c>
+      <c r="C55" s="4">
+        <v>2795</v>
+      </c>
+      <c r="D55" s="4">
+        <v>125368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="4">
+        <v>122573</v>
+      </c>
+      <c r="C56" s="4">
+        <v>2795</v>
+      </c>
+      <c r="D56" s="4">
+        <v>125368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="4">
+        <v>33036</v>
+      </c>
+      <c r="C57" s="4">
+        <v>751</v>
+      </c>
+      <c r="D57" s="4">
+        <v>33787</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="4">
+        <v>33036</v>
+      </c>
+      <c r="C58" s="4">
+        <v>751</v>
+      </c>
+      <c r="D58" s="4">
+        <v>33787</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="4">
+        <v>42791</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1386</v>
+      </c>
+      <c r="D59" s="4">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4">
+        <v>42791</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1386</v>
+      </c>
+      <c r="D60" s="4">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="4">
+        <v>51342</v>
+      </c>
+      <c r="C61" s="4">
+        <v>2140</v>
+      </c>
+      <c r="D61" s="4">
+        <v>53482</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="4">
+        <v>51342</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2140</v>
+      </c>
+      <c r="D62" s="4">
+        <v>53482</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="4">
+        <v>33001</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1136</v>
+      </c>
+      <c r="D63" s="4">
+        <v>34137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="4">
+        <v>33001</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1136</v>
+      </c>
+      <c r="D64" s="4">
+        <v>34137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="4">
+        <v>208002</v>
+      </c>
+      <c r="C65" s="4">
+        <v>3222</v>
+      </c>
+      <c r="D65" s="4">
+        <v>211224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="4">
+        <v>208002</v>
+      </c>
+      <c r="C66" s="4">
+        <v>3222</v>
+      </c>
+      <c r="D66" s="4">
+        <v>211224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="4">
+        <v>38291</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1480</v>
+      </c>
+      <c r="D67" s="4">
+        <v>39771</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="4">
+        <v>38291</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1480</v>
+      </c>
+      <c r="D68" s="4">
+        <v>39771</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="4">
+        <v>446021</v>
+      </c>
+      <c r="C69" s="4">
+        <v>4289</v>
+      </c>
+      <c r="D69" s="4">
+        <v>450310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="4">
+        <v>446021</v>
+      </c>
+      <c r="C70" s="4">
+        <v>4289</v>
+      </c>
+      <c r="D70" s="4">
+        <v>450310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="4">
+        <v>179773</v>
+      </c>
+      <c r="C71" s="4">
+        <v>3457</v>
+      </c>
+      <c r="D71" s="4">
+        <v>183230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="4">
+        <v>179773</v>
+      </c>
+      <c r="C72" s="4">
+        <v>3457</v>
+      </c>
+      <c r="D72" s="4">
+        <v>183230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="4">
+        <v>17881</v>
+      </c>
+      <c r="C73" s="4">
+        <v>675</v>
+      </c>
+      <c r="D73" s="4">
+        <v>18556</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="4">
+        <v>17881</v>
+      </c>
+      <c r="C74" s="4">
+        <v>675</v>
+      </c>
+      <c r="D74" s="4">
+        <v>18556</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="4">
+        <v>205494</v>
+      </c>
+      <c r="C75" s="4">
+        <v>3790</v>
+      </c>
+      <c r="D75" s="4">
+        <v>209284</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="4">
+        <v>205494</v>
+      </c>
+      <c r="C76" s="4">
+        <v>3790</v>
+      </c>
+      <c r="D76" s="4">
+        <v>209284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="4">
+        <v>73564</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1941</v>
+      </c>
+      <c r="D77" s="4">
+        <v>75505</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B78" s="4">
+        <v>73564</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1941</v>
+      </c>
+      <c r="D78" s="4">
+        <v>75505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="4">
+        <v>94264</v>
+      </c>
+      <c r="C79" s="4">
+        <v>2062</v>
+      </c>
+      <c r="D79" s="4">
+        <v>96326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="4">
+        <v>94264</v>
+      </c>
+      <c r="C80" s="4">
+        <v>2062</v>
+      </c>
+      <c r="D80" s="4">
+        <v>96326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="4">
+        <v>240573</v>
+      </c>
+      <c r="C81" s="4">
+        <v>3943</v>
+      </c>
+      <c r="D81" s="4">
+        <v>244516</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="4">
+        <v>240573</v>
+      </c>
+      <c r="C82" s="4">
+        <v>3943</v>
+      </c>
+      <c r="D82" s="4">
+        <v>244516</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="4">
+        <v>111473</v>
+      </c>
+      <c r="C83" s="4">
+        <v>3271</v>
+      </c>
+      <c r="D83" s="4">
+        <v>114744</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="4">
+        <v>111473</v>
+      </c>
+      <c r="C84" s="4">
+        <v>3271</v>
+      </c>
+      <c r="D84" s="4">
+        <v>114744</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="4">
+        <v>22043</v>
+      </c>
+      <c r="C85" s="4">
+        <v>715</v>
+      </c>
+      <c r="D85" s="4">
+        <v>22758</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" s="4">
+        <v>22043</v>
+      </c>
+      <c r="C86" s="4">
+        <v>715</v>
+      </c>
+      <c r="D86" s="4">
+        <v>22758</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="4">
+        <v>104746</v>
+      </c>
+      <c r="C87" s="4">
+        <v>3037</v>
+      </c>
+      <c r="D87" s="4">
+        <v>107783</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88" s="4">
+        <v>104746</v>
+      </c>
+      <c r="C88" s="4">
+        <v>3037</v>
+      </c>
+      <c r="D88" s="4">
+        <v>107783</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="4">
+        <v>397684</v>
+      </c>
+      <c r="C89" s="4">
+        <v>5339</v>
+      </c>
+      <c r="D89" s="4">
+        <v>403023</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" s="4">
+        <v>397684</v>
+      </c>
+      <c r="C90" s="4">
+        <v>5339</v>
+      </c>
+      <c r="D90" s="4">
+        <v>403023</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="4">
+        <v>6049655</v>
+      </c>
+      <c r="C91" s="4">
+        <v>18311</v>
+      </c>
+      <c r="D91" s="4">
+        <v>6067966</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="4">
+        <v>6049655</v>
+      </c>
+      <c r="C92" s="4">
+        <v>18311</v>
+      </c>
+      <c r="D92" s="4">
+        <v>6067966</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="4">
+        <v>60989</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1823</v>
+      </c>
+      <c r="D93" s="4">
+        <v>62812</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" s="4">
+        <v>60989</v>
+      </c>
+      <c r="C94" s="4">
+        <v>1823</v>
+      </c>
+      <c r="D94" s="4">
+        <v>62812</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="4">
+        <v>19503</v>
+      </c>
+      <c r="C95" s="4">
+        <v>648</v>
+      </c>
+      <c r="D95" s="4">
+        <v>20151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" s="4">
+        <v>19503</v>
+      </c>
+      <c r="C96" s="4">
+        <v>648</v>
+      </c>
+      <c r="D96" s="4">
+        <v>20151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="4">
+        <v>157501</v>
+      </c>
+      <c r="C97" s="4">
+        <v>3261</v>
+      </c>
+      <c r="D97" s="4">
+        <v>160762</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98" s="4">
+        <v>157501</v>
+      </c>
+      <c r="C98" s="4">
+        <v>3261</v>
+      </c>
+      <c r="D98" s="4">
+        <v>160762</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="4">
+        <v>153567</v>
+      </c>
+      <c r="C99" s="4">
+        <v>2737</v>
+      </c>
+      <c r="D99" s="4">
+        <v>156304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" s="4">
+        <v>153567</v>
+      </c>
+      <c r="C100" s="4">
+        <v>2737</v>
+      </c>
+      <c r="D100" s="4">
+        <v>156304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="4">
+        <v>31923</v>
+      </c>
+      <c r="C101" s="4">
+        <v>1154</v>
+      </c>
+      <c r="D101" s="4">
+        <v>33077</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B102" s="4">
+        <v>31923</v>
+      </c>
+      <c r="C102" s="4">
+        <v>1154</v>
+      </c>
+      <c r="D102" s="4">
+        <v>33077</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="4">
+        <v>117426</v>
+      </c>
+      <c r="C103" s="4">
+        <v>2408</v>
+      </c>
+      <c r="D103" s="4">
+        <v>119834</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="4">
+        <v>117426</v>
+      </c>
+      <c r="C104" s="4">
+        <v>2408</v>
+      </c>
+      <c r="D104" s="4">
+        <v>119834</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="4">
+        <v>18114</v>
+      </c>
+      <c r="D105" s="4">
+        <v>18114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B106" s="4">
+        <v>18114</v>
+      </c>
+      <c r="D106" s="4">
+        <v>18114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B107" s="4">
+        <v>6049655</v>
+      </c>
+      <c r="C107" s="4">
+        <v>18311</v>
+      </c>
+      <c r="D107" s="4">
+        <v>6049655</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="4">
+        <v>12281860</v>
+      </c>
+      <c r="C109" s="4">
+        <v>136271</v>
+      </c>
+      <c r="D109" s="4">
+        <v>12418131</v>
       </c>
     </row>
   </sheetData>

--- a/FirmSizeData.xlsx
+++ b/FirmSizeData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Casual-Inf-Main-paper\Casual-Inf-Main-paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/651aad64bcb68259/Documents/Casual Inf Main paper/Casual Inf Main paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25DEA05-DE39-41EE-A0B2-7A3EAABA5405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D25DEA05-DE39-41EE-A0B2-7A3EAABA5405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03AC1C2D-AF0D-45A3-80D8-FF6445E4DDB5}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="1118" windowWidth="21600" windowHeight="11422" xr2:uid="{FDFF36A1-FC43-448D-BF42-356055714A9B}"/>
+    <workbookView xWindow="2850" yWindow="1290" windowWidth="15552" windowHeight="8904" firstSheet="16" activeTab="18" xr2:uid="{FDFF36A1-FC43-448D-BF42-356055714A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="P1988" sheetId="1" r:id="rId1"/>
@@ -58859,122 +58859,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D8D05F-670E-4214-BBBD-745BF1C14147}">
   <dimension ref="A3:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.27734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.71875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.94140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.94140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.609375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.94140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.71875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.0546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.0546875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.27734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.94140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.27734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.38671875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.9296875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.94140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.94140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.38671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.27734375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.0546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.71875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.27734375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.71875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6.94140625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="5.71875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="6.71875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="5.71875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="8.94140625" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="8.609375" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.94140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="10.71875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.0546875" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="12.27734375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="6.71875" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="7.27734375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="12.38671875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="13.94140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="6.71875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.38671875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="5.71875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="8.27734375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.71875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="16.71875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="18.94140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -58985,7 +58985,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -58996,7 +58996,7 @@
         <v>10036936</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -59007,7 +59007,7 @@
         <v>70245</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -59018,7 +59018,7 @@
         <v>12229</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -59029,7 +59029,7 @@
         <v>70887</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -59040,7 +59040,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -59051,7 +59051,7 @@
         <v>604939</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -59062,7 +59062,7 @@
         <v>80618</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -59073,7 +59073,7 @@
         <v>82378</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -59084,7 +59084,7 @@
         <v>15214</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -59095,7 +59095,7 @@
         <v>17071</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -59106,7 +59106,7 @@
         <v>289277</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -59117,7 +59117,7 @@
         <v>124800</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -59128,7 +59128,7 @@
         <v>23068</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -59139,7 +59139,7 @@
         <v>21604</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -59150,7 +59150,7 @@
         <v>223758</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -59161,7 +59161,7 @@
         <v>102527</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -59172,7 +59172,7 @@
         <v>60325</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -59183,7 +59183,7 @@
         <v>55911</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -59194,7 +59194,7 @@
         <v>64973</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -59205,7 +59205,7 @@
         <v>73661</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -59216,7 +59216,7 @@
         <v>31107</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -59227,7 +59227,7 @@
         <v>91739</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -59238,7 +59238,7 @@
         <v>139561</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -59249,7 +59249,7 @@
         <v>169196</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -59260,7 +59260,7 @@
         <v>91873</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -59271,7 +59271,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -59282,7 +59282,7 @@
         <v>106519</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -59293,7 +59293,7 @@
         <v>22045</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -59304,7 +59304,7 @@
         <v>37137</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -59315,7 +59315,7 @@
         <v>23709</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -59326,7 +59326,7 @@
         <v>30993</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -59337,7 +59337,7 @@
         <v>187451</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -59348,7 +59348,7 @@
         <v>30061</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -59359,7 +59359,7 @@
         <v>411342</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -59370,7 +59370,7 @@
         <v>130604</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -59381,7 +59381,7 @@
         <v>16784</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -59392,7 +59392,7 @@
         <v>196942</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -59403,7 +59403,7 @@
         <v>62468</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -59414,7 +59414,7 @@
         <v>67316</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -59425,7 +59425,7 @@
         <v>227820</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -59436,7 +59436,7 @@
         <v>25340</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -59447,7 +59447,7 @@
         <v>63616</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -59458,7 +59458,7 @@
         <v>17607</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -59469,7 +59469,7 @@
         <v>91021</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -59480,7 +59480,7 @@
         <v>311869</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -59491,7 +59491,7 @@
         <v>4954645</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -59502,7 +59502,7 @@
         <v>30232</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -59513,7 +59513,7 @@
         <v>17915</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -59524,7 +59524,7 @@
         <v>116652</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -59535,7 +59535,7 @@
         <v>105416</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -59546,7 +59546,7 @@
         <v>31507</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -59557,7 +59557,7 @@
         <v>101461</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -59568,7 +59568,7 @@
         <v>12836</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -59592,15 +59592,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -59611,7 +59611,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -59622,7 +59622,7 @@
         <v>122461</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -59633,7 +59633,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -59644,7 +59644,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -59655,7 +59655,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -59666,7 +59666,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -59677,7 +59677,7 @@
         <v>5196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -59688,7 +59688,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -59699,7 +59699,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -59710,7 +59710,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -59721,7 +59721,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -59732,7 +59732,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -59743,7 +59743,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -59754,7 +59754,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -59765,7 +59765,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -59776,7 +59776,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -59787,7 +59787,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -59798,7 +59798,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -59809,7 +59809,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -59820,7 +59820,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -59831,7 +59831,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -59842,7 +59842,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -59853,7 +59853,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -59864,7 +59864,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -59875,7 +59875,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -59886,7 +59886,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -59897,7 +59897,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -59908,7 +59908,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -59919,7 +59919,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -59930,7 +59930,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -59941,7 +59941,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -59952,7 +59952,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -59963,7 +59963,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -59974,7 +59974,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -59985,7 +59985,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -59996,7 +59996,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -60007,7 +60007,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -60018,7 +60018,7 @@
         <v>3599</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -60029,7 +60029,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -60040,7 +60040,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -60051,7 +60051,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -60062,7 +60062,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -60073,7 +60073,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -60084,7 +60084,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -60095,7 +60095,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -60106,7 +60106,7 @@
         <v>4719</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -60117,7 +60117,7 @@
         <v>16079</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -60128,7 +60128,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -60139,7 +60139,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -60150,7 +60150,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -60161,7 +60161,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -60172,7 +60172,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -60183,7 +60183,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -60194,7 +60194,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -60218,14 +60218,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -60236,7 +60236,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -60247,7 +60247,7 @@
         <v>126558</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -60258,7 +60258,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -60269,7 +60269,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -60280,7 +60280,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -60291,7 +60291,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -60302,7 +60302,7 @@
         <v>5414</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -60313,7 +60313,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -60324,7 +60324,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -60335,7 +60335,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -60346,7 +60346,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -60357,7 +60357,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -60368,7 +60368,7 @@
         <v>3819</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -60379,7 +60379,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -60390,7 +60390,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -60401,7 +60401,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -60412,7 +60412,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -60423,7 +60423,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -60434,7 +60434,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -60445,7 +60445,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -60456,7 +60456,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -60467,7 +60467,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -60478,7 +60478,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -60489,7 +60489,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -60500,7 +60500,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -60511,7 +60511,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -60522,7 +60522,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -60533,7 +60533,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -60544,7 +60544,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -60555,7 +60555,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -60566,7 +60566,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -60577,7 +60577,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -60588,7 +60588,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -60599,7 +60599,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -60610,7 +60610,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -60621,7 +60621,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -60632,7 +60632,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -60643,7 +60643,7 @@
         <v>3698</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -60654,7 +60654,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -60665,7 +60665,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -60676,7 +60676,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -60687,7 +60687,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -60698,7 +60698,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -60709,7 +60709,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -60720,7 +60720,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -60731,7 +60731,7 @@
         <v>4810</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -60742,7 +60742,7 @@
         <v>16378</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -60753,7 +60753,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -60764,7 +60764,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -60775,7 +60775,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -60786,7 +60786,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -60797,7 +60797,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -60808,7 +60808,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -60819,7 +60819,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -60843,15 +60843,15 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -60862,7 +60862,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -60873,7 +60873,7 @@
         <v>130113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -60884,7 +60884,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -60895,7 +60895,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -60906,7 +60906,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -60917,7 +60917,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -60928,7 +60928,7 @@
         <v>5591</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -60939,7 +60939,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -60950,7 +60950,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -60961,7 +60961,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -60972,7 +60972,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -60983,7 +60983,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -60994,7 +60994,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -61005,7 +61005,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -61016,7 +61016,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -61027,7 +61027,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -61038,7 +61038,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -61049,7 +61049,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -61060,7 +61060,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -61071,7 +61071,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -61082,7 +61082,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -61093,7 +61093,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -61104,7 +61104,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -61115,7 +61115,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -61126,7 +61126,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -61137,7 +61137,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -61148,7 +61148,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -61159,7 +61159,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -61170,7 +61170,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -61181,7 +61181,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -61192,7 +61192,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -61203,7 +61203,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -61214,7 +61214,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -61225,7 +61225,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -61236,7 +61236,7 @@
         <v>4241</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -61247,7 +61247,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -61258,7 +61258,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -61269,7 +61269,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -61280,7 +61280,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -61291,7 +61291,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -61302,7 +61302,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -61313,7 +61313,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -61324,7 +61324,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -61335,7 +61335,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -61346,7 +61346,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -61357,7 +61357,7 @@
         <v>4961</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -61368,7 +61368,7 @@
         <v>16740</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -61379,7 +61379,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -61390,7 +61390,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -61401,7 +61401,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -61412,7 +61412,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -61423,7 +61423,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -61434,7 +61434,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -61445,7 +61445,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -61469,15 +61469,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -61488,7 +61488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -61499,7 +61499,7 @@
         <v>131937</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -61510,7 +61510,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -61521,7 +61521,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -61532,7 +61532,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -61543,7 +61543,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -61554,7 +61554,7 @@
         <v>5687</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -61565,7 +61565,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -61576,7 +61576,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -61587,7 +61587,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -61598,7 +61598,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -61609,7 +61609,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -61620,7 +61620,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -61631,7 +61631,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -61642,7 +61642,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -61653,7 +61653,7 @@
         <v>4465</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -61664,7 +61664,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -61675,7 +61675,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -61686,7 +61686,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -61697,7 +61697,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -61708,7 +61708,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -61719,7 +61719,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -61730,7 +61730,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -61741,7 +61741,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -61752,7 +61752,7 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -61763,7 +61763,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -61774,7 +61774,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -61785,7 +61785,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -61796,7 +61796,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -61807,7 +61807,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -61818,7 +61818,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -61829,7 +61829,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -61840,7 +61840,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -61851,7 +61851,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -61862,7 +61862,7 @@
         <v>4266</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -61873,7 +61873,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -61884,7 +61884,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -61895,7 +61895,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -61906,7 +61906,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -61917,7 +61917,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -61928,7 +61928,7 @@
         <v>3913</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -61939,7 +61939,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -61950,7 +61950,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -61961,7 +61961,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -61972,7 +61972,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -61983,7 +61983,7 @@
         <v>5026</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -61994,7 +61994,7 @@
         <v>17153</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -62005,7 +62005,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -62016,7 +62016,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -62027,7 +62027,7 @@
         <v>3149</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -62038,7 +62038,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -62049,7 +62049,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -62060,7 +62060,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -62071,7 +62071,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -62095,15 +62095,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -62114,7 +62114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -62125,7 +62125,7 @@
         <v>132379</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -62136,7 +62136,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -62147,7 +62147,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -62158,7 +62158,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -62169,7 +62169,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -62180,7 +62180,7 @@
         <v>5741</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -62191,7 +62191,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -62202,7 +62202,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -62213,7 +62213,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -62224,7 +62224,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -62235,7 +62235,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -62246,7 +62246,7 @@
         <v>3971</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -62257,7 +62257,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -62268,7 +62268,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -62279,7 +62279,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -62290,7 +62290,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -62301,7 +62301,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -62312,7 +62312,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -62323,7 +62323,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -62334,7 +62334,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -62345,7 +62345,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -62356,7 +62356,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -62367,7 +62367,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -62378,7 +62378,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -62389,7 +62389,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -62400,7 +62400,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -62411,7 +62411,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -62422,7 +62422,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -62433,7 +62433,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -62444,7 +62444,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -62455,7 +62455,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -62466,7 +62466,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -62477,7 +62477,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -62488,7 +62488,7 @@
         <v>4259</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -62499,7 +62499,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -62510,7 +62510,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -62521,7 +62521,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -62532,7 +62532,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -62543,7 +62543,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -62554,7 +62554,7 @@
         <v>3929</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -62565,7 +62565,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -62576,7 +62576,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -62587,7 +62587,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -62598,7 +62598,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -62609,7 +62609,7 @@
         <v>5067</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -62620,7 +62620,7 @@
         <v>17367</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -62631,7 +62631,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -62642,7 +62642,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -62653,7 +62653,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -62664,7 +62664,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -62675,7 +62675,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -62686,7 +62686,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -62697,7 +62697,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -62721,15 +62721,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -62740,7 +62740,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -62751,7 +62751,7 @@
         <v>129024</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -62762,7 +62762,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -62773,7 +62773,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -62784,7 +62784,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -62795,7 +62795,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -62806,7 +62806,7 @@
         <v>5503</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -62817,7 +62817,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -62828,7 +62828,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -62839,7 +62839,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -62850,7 +62850,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -62861,7 +62861,7 @@
         <v>4132</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -62872,7 +62872,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -62883,7 +62883,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -62894,7 +62894,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -62905,7 +62905,7 @@
         <v>4301</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -62916,7 +62916,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -62927,7 +62927,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -62938,7 +62938,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -62949,7 +62949,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -62960,7 +62960,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -62971,7 +62971,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -62982,7 +62982,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -62993,7 +62993,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -63004,7 +63004,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -63015,7 +63015,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -63026,7 +63026,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -63037,7 +63037,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -63048,7 +63048,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -63059,7 +63059,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -63070,7 +63070,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -63081,7 +63081,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -63092,7 +63092,7 @@
         <v>3194</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -63103,7 +63103,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -63114,7 +63114,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -63125,7 +63125,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -63136,7 +63136,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -63147,7 +63147,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -63158,7 +63158,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -63169,7 +63169,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -63180,7 +63180,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -63191,7 +63191,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -63202,7 +63202,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -63213,7 +63213,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -63224,7 +63224,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -63235,7 +63235,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -63246,7 +63246,7 @@
         <v>16845</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -63257,7 +63257,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -63268,7 +63268,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -63279,7 +63279,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -63290,7 +63290,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -63301,7 +63301,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -63312,7 +63312,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -63323,7 +63323,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -63347,17 +63347,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -63368,7 +63368,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -63379,7 +63379,7 @@
         <v>128574</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -63390,7 +63390,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -63401,7 +63401,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -63412,7 +63412,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -63423,7 +63423,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -63434,7 +63434,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -63445,7 +63445,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -63456,7 +63456,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -63467,7 +63467,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -63478,7 +63478,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -63489,7 +63489,7 @@
         <v>4124</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -63500,7 +63500,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -63511,7 +63511,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -63522,7 +63522,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -63533,7 +63533,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -63544,7 +63544,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -63555,7 +63555,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -63566,7 +63566,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -63577,7 +63577,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -63588,7 +63588,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -63599,7 +63599,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -63610,7 +63610,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -63621,7 +63621,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -63632,7 +63632,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -63643,7 +63643,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -63654,7 +63654,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -63665,7 +63665,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -63676,7 +63676,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -63687,7 +63687,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -63698,7 +63698,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -63709,7 +63709,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -63720,7 +63720,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -63731,7 +63731,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -63742,7 +63742,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -63753,7 +63753,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -63764,7 +63764,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -63775,7 +63775,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -63786,7 +63786,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -63797,7 +63797,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -63808,7 +63808,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -63819,7 +63819,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -63830,7 +63830,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -63841,7 +63841,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -63852,7 +63852,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -63863,7 +63863,7 @@
         <v>4894</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -63874,7 +63874,7 @@
         <v>16926</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -63885,7 +63885,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -63896,7 +63896,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -63907,7 +63907,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -63918,7 +63918,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -63929,7 +63929,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -63940,7 +63940,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -63951,7 +63951,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -63975,15 +63975,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -63994,7 +63994,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -64005,7 +64005,7 @@
         <v>128523</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -64016,7 +64016,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -64027,7 +64027,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -64038,7 +64038,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -64049,7 +64049,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -64060,7 +64060,7 @@
         <v>5447</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -64071,7 +64071,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -64082,7 +64082,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -64093,7 +64093,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -64104,7 +64104,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -64115,7 +64115,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -64126,7 +64126,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -64137,7 +64137,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -64148,7 +64148,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -64159,7 +64159,7 @@
         <v>4172</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -64170,7 +64170,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -64181,7 +64181,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -64192,7 +64192,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -64203,7 +64203,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -64214,7 +64214,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -64225,7 +64225,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -64236,7 +64236,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -64247,7 +64247,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -64258,7 +64258,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -64269,7 +64269,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -64280,7 +64280,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -64291,7 +64291,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -64302,7 +64302,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -64313,7 +64313,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -64324,7 +64324,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -64335,7 +64335,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -64346,7 +64346,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -64357,7 +64357,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -64368,7 +64368,7 @@
         <v>4114</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -64379,7 +64379,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -64390,7 +64390,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -64401,7 +64401,7 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -64412,7 +64412,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -64423,7 +64423,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -64434,7 +64434,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -64445,7 +64445,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -64456,7 +64456,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -64467,7 +64467,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -64478,7 +64478,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -64489,7 +64489,7 @@
         <v>4859</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -64500,7 +64500,7 @@
         <v>17047</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -64511,7 +64511,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -64522,7 +64522,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -64533,7 +64533,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -64544,7 +64544,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -64555,7 +64555,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -64566,7 +64566,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -64577,7 +64577,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -64601,15 +64601,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -64620,7 +64620,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -64631,7 +64631,7 @@
         <v>130490</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -64642,7 +64642,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -64653,7 +64653,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -64664,7 +64664,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -64675,7 +64675,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -64686,7 +64686,7 @@
         <v>5568</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -64697,7 +64697,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -64708,7 +64708,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -64719,7 +64719,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -64730,7 +64730,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -64741,7 +64741,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -64752,7 +64752,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -64763,7 +64763,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -64774,7 +64774,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -64785,7 +64785,7 @@
         <v>4230</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -64796,7 +64796,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -64807,7 +64807,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -64818,7 +64818,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -64829,7 +64829,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -64840,7 +64840,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -64851,7 +64851,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -64862,7 +64862,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -64873,7 +64873,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -64884,7 +64884,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -64895,7 +64895,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -64906,7 +64906,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -64917,7 +64917,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -64928,7 +64928,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -64939,7 +64939,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -64950,7 +64950,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -64961,7 +64961,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -64972,7 +64972,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -64983,7 +64983,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -64994,7 +64994,7 @@
         <v>4139</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -65005,7 +65005,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -65016,7 +65016,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -65027,7 +65027,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -65038,7 +65038,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -65049,7 +65049,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -65060,7 +65060,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -65071,7 +65071,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -65082,7 +65082,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -65093,7 +65093,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -65104,7 +65104,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -65115,7 +65115,7 @@
         <v>4942</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -65126,7 +65126,7 @@
         <v>17477</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -65137,7 +65137,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -65148,7 +65148,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -65159,7 +65159,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -65170,7 +65170,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -65181,7 +65181,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -65192,7 +65192,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -65203,7 +65203,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -65223,19 +65223,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4069B4F-11CF-45C6-A54D-5D6640EFFE6A}">
   <dimension ref="A3:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -65246,7 +65246,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -65257,7 +65257,7 @@
         <v>133889</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -65268,7 +65268,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -65279,7 +65279,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -65290,7 +65290,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -65301,7 +65301,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -65312,7 +65312,7 @@
         <v>5660</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -65323,7 +65323,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -65334,7 +65334,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -65345,7 +65345,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -65356,7 +65356,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -65367,7 +65367,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -65378,7 +65378,7 @@
         <v>3855</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -65389,7 +65389,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -65400,7 +65400,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -65411,7 +65411,7 @@
         <v>4315</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -65422,7 +65422,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -65433,7 +65433,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -65444,7 +65444,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -65455,7 +65455,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -65466,7 +65466,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -65477,7 +65477,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -65488,7 +65488,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -65499,7 +65499,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -65510,7 +65510,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -65521,7 +65521,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -65532,7 +65532,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -65543,7 +65543,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -65554,7 +65554,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -65565,7 +65565,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -65576,7 +65576,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -65587,7 +65587,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -65598,7 +65598,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -65609,7 +65609,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -65620,7 +65620,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -65631,7 +65631,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -65642,7 +65642,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -65653,7 +65653,7 @@
         <v>3733</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -65664,7 +65664,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -65675,7 +65675,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -65686,7 +65686,7 @@
         <v>3861</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -65697,7 +65697,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -65708,7 +65708,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -65719,7 +65719,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -65730,7 +65730,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -65741,7 +65741,7 @@
         <v>5105</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -65752,7 +65752,7 @@
         <v>18071</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -65763,7 +65763,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -65774,7 +65774,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -65785,7 +65785,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -65796,7 +65796,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -65807,7 +65807,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -65818,7 +65818,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -65829,7 +65829,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -65853,15 +65853,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -65872,7 +65872,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -65883,7 +65883,7 @@
         <v>100400</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -65894,7 +65894,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -65905,7 +65905,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -65916,7 +65916,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -65927,7 +65927,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -65938,7 +65938,7 @@
         <v>4595</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -65949,7 +65949,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -65960,7 +65960,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -65971,7 +65971,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -65982,7 +65982,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -65993,7 +65993,7 @@
         <v>3263</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -66004,7 +66004,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -66015,7 +66015,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -66026,7 +66026,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -66037,7 +66037,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -66048,7 +66048,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -66059,7 +66059,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -66070,7 +66070,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -66081,7 +66081,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -66092,7 +66092,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -66103,7 +66103,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -66114,7 +66114,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -66125,7 +66125,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -66136,7 +66136,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -66147,7 +66147,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -66158,7 +66158,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -66169,7 +66169,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -66180,7 +66180,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -66191,7 +66191,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -66202,7 +66202,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -66213,7 +66213,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -66224,7 +66224,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -66235,7 +66235,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -66246,7 +66246,7 @@
         <v>3676</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -66257,7 +66257,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -66268,7 +66268,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -66279,7 +66279,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -66290,7 +66290,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -66301,7 +66301,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -66312,7 +66312,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -66323,7 +66323,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -66334,7 +66334,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -66345,7 +66345,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -66356,7 +66356,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -66367,7 +66367,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -66378,7 +66378,7 @@
         <v>13873</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -66389,7 +66389,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -66400,7 +66400,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -66411,7 +66411,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -66422,7 +66422,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -66433,7 +66433,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -66444,7 +66444,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -66455,7 +66455,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -66479,14 +66479,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -66497,7 +66497,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -66508,7 +66508,7 @@
         <v>88596</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -66519,7 +66519,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -66530,7 +66530,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -66541,7 +66541,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -66552,7 +66552,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -66563,7 +66563,7 @@
         <v>4674</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -66574,7 +66574,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -66585,7 +66585,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -66596,7 +66596,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -66607,7 +66607,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -66618,7 +66618,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -66629,7 +66629,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -66640,7 +66640,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -66651,7 +66651,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -66662,7 +66662,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -66673,7 +66673,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -66684,7 +66684,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -66695,7 +66695,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -66706,7 +66706,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -66717,7 +66717,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -66728,7 +66728,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -66739,7 +66739,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -66750,7 +66750,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -66761,7 +66761,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -66772,7 +66772,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -66783,7 +66783,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -66794,7 +66794,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -66805,7 +66805,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -66816,7 +66816,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -66827,7 +66827,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -66838,7 +66838,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -66849,7 +66849,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -66860,7 +66860,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -66871,7 +66871,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -66882,7 +66882,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -66893,7 +66893,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -66904,7 +66904,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -66915,7 +66915,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -66926,7 +66926,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -66937,7 +66937,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -66948,7 +66948,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -66959,7 +66959,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -66970,7 +66970,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -66981,7 +66981,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -66992,7 +66992,7 @@
         <v>3809</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -67003,7 +67003,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -67014,7 +67014,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -67025,7 +67025,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
@@ -67036,7 +67036,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
@@ -67047,7 +67047,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -67058,7 +67058,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
@@ -67069,7 +67069,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -67093,18 +67093,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.0546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.94140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -67115,7 +67115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -67126,7 +67126,7 @@
         <v>90096</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -67137,7 +67137,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -67148,7 +67148,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -67159,7 +67159,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -67170,7 +67170,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -67181,7 +67181,7 @@
         <v>4706</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -67192,7 +67192,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -67203,7 +67203,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -67214,7 +67214,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -67225,7 +67225,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -67236,7 +67236,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -67247,7 +67247,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -67258,7 +67258,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -67269,7 +67269,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -67280,7 +67280,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -67291,7 +67291,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -67302,7 +67302,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -67313,7 +67313,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -67324,7 +67324,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -67335,7 +67335,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -67346,7 +67346,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -67357,7 +67357,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -67368,7 +67368,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -67379,7 +67379,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -67390,7 +67390,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -67401,7 +67401,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -67412,7 +67412,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -67423,7 +67423,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -67434,7 +67434,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -67445,7 +67445,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -67456,7 +67456,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -67467,7 +67467,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -67478,7 +67478,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -67489,7 +67489,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -67500,7 +67500,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -67511,7 +67511,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -67522,7 +67522,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -67533,7 +67533,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -67544,7 +67544,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -67555,7 +67555,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -67566,7 +67566,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -67577,7 +67577,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -67588,7 +67588,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -67599,7 +67599,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -67610,7 +67610,7 @@
         <v>3884</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -67621,7 +67621,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -67632,7 +67632,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -67643,7 +67643,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
@@ -67654,7 +67654,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
@@ -67665,7 +67665,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -67676,7 +67676,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
@@ -67687,7 +67687,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -67711,15 +67711,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -67730,7 +67730,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -67741,7 +67741,7 @@
         <v>105472</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -67752,7 +67752,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -67763,7 +67763,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -67774,7 +67774,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -67785,7 +67785,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -67796,7 +67796,7 @@
         <v>4692</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -67807,7 +67807,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -67818,7 +67818,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -67829,7 +67829,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -67840,7 +67840,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -67851,7 +67851,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -67862,7 +67862,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -67873,7 +67873,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -67884,7 +67884,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -67895,7 +67895,7 @@
         <v>3660</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -67906,7 +67906,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -67917,7 +67917,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -67928,7 +67928,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -67939,7 +67939,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -67950,7 +67950,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -67961,7 +67961,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -67972,7 +67972,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -67983,7 +67983,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -67994,7 +67994,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -68005,7 +68005,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -68016,7 +68016,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -68027,7 +68027,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -68038,7 +68038,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -68049,7 +68049,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -68060,7 +68060,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -68071,7 +68071,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -68082,7 +68082,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -68093,7 +68093,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -68104,7 +68104,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -68115,7 +68115,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -68126,7 +68126,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -68137,7 +68137,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -68148,7 +68148,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -68159,7 +68159,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -68170,7 +68170,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -68181,7 +68181,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -68192,7 +68192,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -68203,7 +68203,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -68214,7 +68214,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -68225,7 +68225,7 @@
         <v>3994</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -68236,7 +68236,7 @@
         <v>14122</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -68247,7 +68247,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -68258,7 +68258,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -68269,7 +68269,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -68280,7 +68280,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -68291,7 +68291,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -68302,7 +68302,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -68313,7 +68313,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -68337,14 +68337,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -68355,7 +68355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -68366,7 +68366,7 @@
         <v>108018</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -68377,7 +68377,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -68388,7 +68388,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -68399,7 +68399,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -68410,7 +68410,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -68421,7 +68421,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -68432,7 +68432,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -68443,7 +68443,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -68454,7 +68454,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -68465,7 +68465,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -68476,7 +68476,7 @@
         <v>3401</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -68487,7 +68487,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -68498,7 +68498,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -68509,7 +68509,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -68520,7 +68520,7 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -68531,7 +68531,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -68542,7 +68542,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -68553,7 +68553,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -68564,7 +68564,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -68575,7 +68575,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -68586,7 +68586,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -68597,7 +68597,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -68608,7 +68608,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -68619,7 +68619,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -68630,7 +68630,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -68641,7 +68641,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -68652,7 +68652,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -68663,7 +68663,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -68674,7 +68674,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -68685,7 +68685,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -68696,7 +68696,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -68707,7 +68707,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -68718,7 +68718,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -68729,7 +68729,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -68740,7 +68740,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -68751,7 +68751,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -68762,7 +68762,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -68773,7 +68773,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -68784,7 +68784,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -68795,7 +68795,7 @@
         <v>3355</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -68806,7 +68806,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -68817,7 +68817,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -68828,7 +68828,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -68839,7 +68839,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -68850,7 +68850,7 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -68861,7 +68861,7 @@
         <v>14629</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -68872,7 +68872,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -68883,7 +68883,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -68894,7 +68894,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -68905,7 +68905,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -68916,7 +68916,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -68927,7 +68927,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -68938,7 +68938,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -68962,15 +68962,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -68981,7 +68981,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -68992,7 +68992,7 @@
         <v>111801</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -69003,7 +69003,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -69014,7 +69014,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -69025,7 +69025,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -69036,7 +69036,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -69047,7 +69047,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -69058,7 +69058,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -69069,7 +69069,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -69080,7 +69080,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -69091,7 +69091,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -69102,7 +69102,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -69113,7 +69113,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -69124,7 +69124,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -69135,7 +69135,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -69146,7 +69146,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -69157,7 +69157,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -69168,7 +69168,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -69179,7 +69179,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -69190,7 +69190,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -69201,7 +69201,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -69212,7 +69212,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -69223,7 +69223,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -69234,7 +69234,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -69245,7 +69245,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -69256,7 +69256,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -69267,7 +69267,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -69278,7 +69278,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -69289,7 +69289,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -69300,7 +69300,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -69311,7 +69311,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -69322,7 +69322,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -69333,7 +69333,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -69344,7 +69344,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -69355,7 +69355,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -69366,7 +69366,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -69377,7 +69377,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -69388,7 +69388,7 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -69399,7 +69399,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -69410,7 +69410,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -69421,7 +69421,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -69432,7 +69432,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -69443,7 +69443,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -69454,7 +69454,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -69465,7 +69465,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -69476,7 +69476,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -69487,7 +69487,7 @@
         <v>14997</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -69498,7 +69498,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -69509,7 +69509,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -69520,7 +69520,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -69531,7 +69531,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -69542,7 +69542,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -69553,7 +69553,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -69564,7 +69564,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -69588,14 +69588,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -69606,7 +69606,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -69617,7 +69617,7 @@
         <v>116434</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -69628,7 +69628,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -69639,7 +69639,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -69650,7 +69650,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -69661,7 +69661,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -69672,7 +69672,7 @@
         <v>4948</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -69683,7 +69683,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -69694,7 +69694,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -69705,7 +69705,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -69716,7 +69716,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -69727,7 +69727,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -69738,7 +69738,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -69749,7 +69749,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -69760,7 +69760,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -69771,7 +69771,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -69782,7 +69782,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -69793,7 +69793,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -69804,7 +69804,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -69815,7 +69815,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -69826,7 +69826,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -69837,7 +69837,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -69848,7 +69848,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -69859,7 +69859,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -69870,7 +69870,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -69881,7 +69881,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -69892,7 +69892,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -69903,7 +69903,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -69914,7 +69914,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -69925,7 +69925,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -69936,7 +69936,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -69947,7 +69947,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -69958,7 +69958,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -69969,7 +69969,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -69980,7 +69980,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -69991,7 +69991,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -70002,7 +70002,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -70013,7 +70013,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -70024,7 +70024,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -70035,7 +70035,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -70046,7 +70046,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -70057,7 +70057,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -70068,7 +70068,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -70079,7 +70079,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -70090,7 +70090,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -70101,7 +70101,7 @@
         <v>4449</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -70112,7 +70112,7 @@
         <v>15444</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -70123,7 +70123,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -70134,7 +70134,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -70145,7 +70145,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -70156,7 +70156,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -70167,7 +70167,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -70178,7 +70178,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -70189,7 +70189,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -70213,15 +70213,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -70232,7 +70232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -70243,7 +70243,7 @@
         <v>118800</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -70254,7 +70254,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -70265,7 +70265,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -70276,7 +70276,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -70287,7 +70287,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -70298,7 +70298,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -70309,7 +70309,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -70320,7 +70320,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -70331,7 +70331,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -70342,7 +70342,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -70353,7 +70353,7 @@
         <v>3687</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -70364,7 +70364,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -70375,7 +70375,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -70386,7 +70386,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -70397,7 +70397,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -70408,7 +70408,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -70419,7 +70419,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -70430,7 +70430,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -70441,7 +70441,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -70452,7 +70452,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -70463,7 +70463,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -70474,7 +70474,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -70485,7 +70485,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -70496,7 +70496,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -70507,7 +70507,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -70518,7 +70518,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -70529,7 +70529,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -70540,7 +70540,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -70551,7 +70551,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -70562,7 +70562,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -70573,7 +70573,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -70584,7 +70584,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -70595,7 +70595,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -70606,7 +70606,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -70617,7 +70617,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -70628,7 +70628,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -70639,7 +70639,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -70650,7 +70650,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -70661,7 +70661,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -70672,7 +70672,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -70683,7 +70683,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -70694,7 +70694,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -70705,7 +70705,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -70716,7 +70716,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -70727,7 +70727,7 @@
         <v>4502</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -70738,7 +70738,7 @@
         <v>15616</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -70749,7 +70749,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -70760,7 +70760,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -70771,7 +70771,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -70782,7 +70782,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -70793,7 +70793,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -70804,7 +70804,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -70815,7 +70815,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
